--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_15_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_15_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1992368.695467796</v>
+        <v>1965787.140247381</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5109353.528726439</v>
+        <v>5109353.528726443</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5513048.88221506</v>
+        <v>5513048.882215061</v>
       </c>
     </row>
     <row r="9">
@@ -1372,7 +1372,7 @@
         <v>300.0408452425866</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>283.3095309301341</v>
       </c>
       <c r="D11" t="n">
         <v>272.9291680057898</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>65.64085943881864</v>
       </c>
       <c r="H11" t="n">
         <v>239.0313842171678</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>63.43736166090154</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>87.84107999117302</v>
       </c>
       <c r="T11" t="n">
-        <v>65.69266742793801</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>167.6816123413427</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>266.8545522517461</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>59.83066733474078</v>
       </c>
       <c r="G12" t="n">
-        <v>51.54115222795676</v>
+        <v>51.54115222795677</v>
       </c>
       <c r="H12" t="n">
-        <v>18.99792406864867</v>
+        <v>18.99792406864868</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>70.30579116669006</v>
+        <v>70.30579116668994</v>
       </c>
       <c r="T12" t="n">
         <v>111.4562334893435</v>
       </c>
       <c r="U12" t="n">
-        <v>140.9285535533747</v>
+        <v>140.9285535533751</v>
       </c>
       <c r="V12" t="n">
         <v>148.2331662908466</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.40812674187529</v>
+        <v>5.013544037665972</v>
       </c>
       <c r="C13" t="n">
-        <v>83.66098818239382</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.33000176571085</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.29905942439066</v>
       </c>
       <c r="F13" t="n">
         <v>62.48345666099598</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.53788735057549</v>
       </c>
       <c r="H13" t="n">
         <v>71.9470361651253</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.74970353918425</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>59.31401233223555</v>
       </c>
       <c r="S13" t="n">
-        <v>80.16623734624876</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>141.7679529659691</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>202.3398254514889</v>
@@ -1596,7 +1596,7 @@
         <v>142.4647951835007</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>135.0731091189597</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>55.27222747390807</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>323.6182987317324</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329.6718695751077</v>
       </c>
       <c r="H14" t="n">
         <v>239.0313842171678</v>
@@ -1660,22 +1660,22 @@
         <v>87.84107999117302</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>132.691210645285</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>58.68711430148424</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>303.0115070024273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>59.83066733474078</v>
       </c>
       <c r="G15" t="n">
-        <v>51.54115222795677</v>
+        <v>51.54115222795676</v>
       </c>
       <c r="H15" t="n">
-        <v>18.99792406864868</v>
+        <v>18.99792406864867</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>111.4562334893435</v>
       </c>
       <c r="U15" t="n">
-        <v>140.9285535533745</v>
+        <v>140.9285535533747</v>
       </c>
       <c r="V15" t="n">
         <v>148.2331662908466</v>
@@ -1754,7 +1754,7 @@
         <v>120.7860648596698</v>
       </c>
       <c r="Y15" t="n">
-        <v>119.9955866697779</v>
+        <v>119.9955866697775</v>
       </c>
     </row>
     <row r="16">
@@ -1767,16 +1767,16 @@
         <v>96.40812674187529</v>
       </c>
       <c r="C16" t="n">
-        <v>83.66098818239382</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>65.33000176571085</v>
       </c>
       <c r="E16" t="n">
-        <v>52.3023932975956</v>
+        <v>63.29905942439066</v>
       </c>
       <c r="F16" t="n">
-        <v>62.48345666099598</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>83.53788735057549</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>59.31401233223555</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>126.898621262632</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>141.7679529659691</v>
       </c>
       <c r="U16" t="n">
-        <v>202.3398254514889</v>
+        <v>85.77287721621927</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>169.2607863181306</v>
       </c>
       <c r="W16" t="n">
         <v>202.417012138607</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.0408452425866</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>67.83897174063505</v>
+        <v>29.05608996896258</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>323.6182987317324</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>329.6718695751077</v>
       </c>
       <c r="H17" t="n">
         <v>239.0313842171678</v>
       </c>
       <c r="I17" t="n">
-        <v>63.43736166090154</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>266.8545522517461</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>287.1860343823608</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="18">
@@ -1979,7 +1979,7 @@
         <v>111.4562334893435</v>
       </c>
       <c r="U18" t="n">
-        <v>140.9285535533749</v>
+        <v>140.9285535533745</v>
       </c>
       <c r="V18" t="n">
         <v>148.2331662908466</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.40812674187529</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>83.66098818239382</v>
       </c>
       <c r="D19" t="n">
         <v>65.33000176571085</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.65975339201684</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>62.48345666099598</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>71.9470361651253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.31401233223555</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>126.898621262632</v>
@@ -2070,7 +2070,7 @@
         <v>142.4647951835007</v>
       </c>
       <c r="Y19" t="n">
-        <v>106.029095326421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>283.3095309301341</v>
       </c>
       <c r="D20" t="n">
-        <v>272.9291680057898</v>
+        <v>17.97800358446603</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>299.442471006479</v>
       </c>
       <c r="F20" t="n">
         <v>323.6182987317324</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>37.64414137308771</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>287.1860343823608</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.0115070024273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2228,7 +2228,7 @@
         <v>120.7860648596698</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.9955866697775</v>
+        <v>119.9955866697779</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>96.40812674187529</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>83.66098818239382</v>
       </c>
       <c r="D22" t="n">
-        <v>65.33000176571085</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>63.29905942439066</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.03312653265341</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>202.417012138607</v>
       </c>
       <c r="X22" t="n">
-        <v>50.12172196657119</v>
+        <v>142.4647951835007</v>
       </c>
       <c r="Y22" t="n">
         <v>135.0731091189597</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.0408452425865</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C23" t="n">
         <v>283.3095309301341</v>
       </c>
       <c r="D23" t="n">
-        <v>272.9291680057898</v>
+        <v>272.9291680057899</v>
       </c>
       <c r="E23" t="n">
-        <v>179.3504408582111</v>
+        <v>152.9706102405512</v>
       </c>
       <c r="F23" t="n">
-        <v>323.6182987317323</v>
+        <v>323.6182987317324</v>
       </c>
       <c r="G23" t="n">
-        <v>329.6718695751076</v>
+        <v>329.6718695751077</v>
       </c>
       <c r="H23" t="n">
         <v>239.0313842171678</v>
       </c>
       <c r="I23" t="n">
-        <v>63.43736166090151</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>87.84107999117299</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>132.6912106452849</v>
+        <v>132.691210645285</v>
       </c>
       <c r="U23" t="n">
-        <v>167.6816123413427</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>244.8576567737108</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>287.1860343823609</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.40812674187526</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>83.66098818239379</v>
+        <v>83.66098818239385</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.33000176571088</v>
       </c>
       <c r="E25" t="n">
-        <v>63.29905942439063</v>
+        <v>63.29905942439069</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.48345666099601</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>83.53788735057552</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>71.94703616512533</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>49.74970353918428</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>59.31401233223552</v>
+        <v>59.31401233223558</v>
       </c>
       <c r="S25" t="n">
-        <v>126.8986212626319</v>
+        <v>126.898621262632</v>
       </c>
       <c r="T25" t="n">
-        <v>141.767952965969</v>
+        <v>141.7679529659691</v>
       </c>
       <c r="U25" t="n">
-        <v>202.3398254514889</v>
+        <v>202.339825451489</v>
       </c>
       <c r="V25" t="n">
-        <v>169.2607863181306</v>
+        <v>99.48467224726161</v>
       </c>
       <c r="W25" t="n">
         <v>202.417012138607</v>
       </c>
       <c r="X25" t="n">
-        <v>31.79073554988915</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.0731091189597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>47.16593675218125</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>171.5166447399815</v>
       </c>
       <c r="T26" t="n">
-        <v>216.3667753940935</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3571770901512</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>100.9952173227822</v>
+        <v>204.6955595718422</v>
       </c>
     </row>
     <row r="27">
@@ -2760,13 +2760,13 @@
         <v>23.14346035039974</v>
       </c>
       <c r="R28" t="n">
-        <v>142.9895770810441</v>
+        <v>25.57311020106113</v>
       </c>
       <c r="S28" t="n">
-        <v>210.5741860114405</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>56.24932173601616</v>
+        <v>225.4435177147776</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>297.35694662912</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>108.4049184872857</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.3474343239162</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>147.11292640971</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>171.5166447399815</v>
       </c>
       <c r="T29" t="n">
-        <v>216.3667753940935</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3571770901512</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -2994,31 +2994,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>23.14346035039974</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>142.9895770810441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>210.5741860114405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4435177147776</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>116.8983809086541</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>274.1600882662385</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>238.3468678410955</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>283.3095309301341</v>
       </c>
       <c r="D32" t="n">
-        <v>272.9291680057898</v>
+        <v>272.9291680057899</v>
       </c>
       <c r="E32" t="n">
         <v>299.442471006479</v>
       </c>
       <c r="F32" t="n">
-        <v>323.6182987317324</v>
+        <v>247.3017312017584</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>239.0313842171678</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.84107999117302</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>132.691210645285</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>167.6816123413427</v>
       </c>
       <c r="V32" t="n">
-        <v>244.8576567737108</v>
+        <v>244.8576567737109</v>
       </c>
       <c r="W32" t="n">
         <v>266.8545522517461</v>
       </c>
       <c r="X32" t="n">
-        <v>287.1860343823608</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>303.0115070024273</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>96.40812674187532</v>
       </c>
       <c r="C34" t="n">
-        <v>4.880656288340806</v>
+        <v>36.28598797317171</v>
       </c>
       <c r="D34" t="n">
-        <v>65.33000176571085</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.48345666099598</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>59.31401233223555</v>
+        <v>59.31401233223558</v>
       </c>
       <c r="S34" t="n">
         <v>126.898621262632</v>
@@ -3243,16 +3243,16 @@
         <v>141.7679529659691</v>
       </c>
       <c r="U34" t="n">
-        <v>202.3398254514889</v>
+        <v>202.339825451489</v>
       </c>
       <c r="V34" t="n">
-        <v>169.2607863181306</v>
+        <v>169.2607863181307</v>
       </c>
       <c r="W34" t="n">
         <v>202.417012138607</v>
       </c>
       <c r="X34" t="n">
-        <v>142.4647951835007</v>
+        <v>142.4647951835008</v>
       </c>
       <c r="Y34" t="n">
         <v>135.0731091189597</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>300.0408452425866</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>329.6718695751077</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>63.43736166090154</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.84107999117302</v>
+        <v>87.84107999117305</v>
       </c>
       <c r="T35" t="n">
         <v>132.691210645285</v>
@@ -3325,16 +3325,16 @@
         <v>167.6816123413427</v>
       </c>
       <c r="V35" t="n">
-        <v>230.8662500301747</v>
+        <v>244.8576567737109</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>287.1860343823609</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>125.1180831009526</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>81.69656086153631</v>
+        <v>81.69656086153634</v>
       </c>
       <c r="C36" t="n">
-        <v>87.35001917859248</v>
+        <v>87.3500191785925</v>
       </c>
       <c r="D36" t="n">
-        <v>62.43685882583705</v>
+        <v>62.43685882583708</v>
       </c>
       <c r="E36" t="n">
-        <v>72.35786895836532</v>
+        <v>72.35786895836534</v>
       </c>
       <c r="F36" t="n">
-        <v>59.83066733474078</v>
+        <v>59.83066733474081</v>
       </c>
       <c r="G36" t="n">
-        <v>51.54115222795677</v>
+        <v>51.5411522279568</v>
       </c>
       <c r="H36" t="n">
-        <v>18.99792406864868</v>
+        <v>18.9979240686487</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>70.30579116669006</v>
+        <v>70.30579116669008</v>
       </c>
       <c r="T36" t="n">
         <v>111.4562334893435</v>
       </c>
       <c r="U36" t="n">
-        <v>140.9285535533747</v>
+        <v>140.9285535533745</v>
       </c>
       <c r="V36" t="n">
-        <v>148.2331662908466</v>
+        <v>148.2331662908467</v>
       </c>
       <c r="W36" t="n">
-        <v>166.3137820011915</v>
+        <v>166.3137820011916</v>
       </c>
       <c r="X36" t="n">
         <v>120.7860648596698</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>96.40812674187532</v>
       </c>
       <c r="C37" t="n">
-        <v>83.66098818239382</v>
+        <v>83.66098818239385</v>
       </c>
       <c r="D37" t="n">
-        <v>49.03312653265341</v>
+        <v>65.33000176571088</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.29905942439069</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.53788735057552</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>71.94703616512533</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>49.74970353918428</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>59.31401233223555</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>126.898621262632</v>
       </c>
       <c r="T37" t="n">
-        <v>141.7679529659691</v>
+        <v>22.18310229548515</v>
       </c>
       <c r="U37" t="n">
-        <v>202.3398254514889</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>169.2607863181306</v>
+        <v>169.2607863181307</v>
       </c>
       <c r="W37" t="n">
         <v>202.417012138607</v>
       </c>
       <c r="X37" t="n">
-        <v>142.4647951835007</v>
+        <v>142.4647951835008</v>
       </c>
       <c r="Y37" t="n">
         <v>135.0731091189597</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>272.9291680057899</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>299.442471006479</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>21.5215032572777</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>87.84107999117305</v>
+        <v>87.84107999117302</v>
       </c>
       <c r="T38" t="n">
         <v>132.691210645285</v>
@@ -3562,16 +3562,16 @@
         <v>167.6816123413427</v>
       </c>
       <c r="V38" t="n">
-        <v>244.8576567737109</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>106.1886564866828</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>81.69656086153634</v>
+        <v>81.69656086153631</v>
       </c>
       <c r="C39" t="n">
-        <v>87.3500191785925</v>
+        <v>87.35001917859248</v>
       </c>
       <c r="D39" t="n">
-        <v>62.43685882583708</v>
+        <v>62.43685882583705</v>
       </c>
       <c r="E39" t="n">
-        <v>72.35786895836534</v>
+        <v>72.35786895836532</v>
       </c>
       <c r="F39" t="n">
-        <v>59.83066733474081</v>
+        <v>59.83066733474078</v>
       </c>
       <c r="G39" t="n">
-        <v>51.5411522279568</v>
+        <v>51.54115222795677</v>
       </c>
       <c r="H39" t="n">
-        <v>18.9979240686487</v>
+        <v>18.99792406864868</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>70.30579116669008</v>
+        <v>70.30579116669006</v>
       </c>
       <c r="T39" t="n">
         <v>111.4562334893435</v>
@@ -3641,10 +3641,10 @@
         <v>140.9285535533745</v>
       </c>
       <c r="V39" t="n">
-        <v>148.2331662908466</v>
+        <v>148.2331662908471</v>
       </c>
       <c r="W39" t="n">
-        <v>166.3137820011916</v>
+        <v>166.3137820011915</v>
       </c>
       <c r="X39" t="n">
         <v>120.7860648596698</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.39505529065617</v>
+        <v>96.40812674187529</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>36.28598797317195</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>63.29905942439069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>59.31401233223558</v>
+        <v>59.31401233223555</v>
       </c>
       <c r="S40" t="n">
         <v>126.898621262632</v>
@@ -3717,16 +3717,16 @@
         <v>141.7679529659691</v>
       </c>
       <c r="U40" t="n">
-        <v>202.339825451489</v>
+        <v>202.3398254514889</v>
       </c>
       <c r="V40" t="n">
-        <v>169.2607863181307</v>
+        <v>169.2607863181306</v>
       </c>
       <c r="W40" t="n">
         <v>202.417012138607</v>
       </c>
       <c r="X40" t="n">
-        <v>142.4647951835008</v>
+        <v>142.4647951835007</v>
       </c>
       <c r="Y40" t="n">
         <v>135.0731091189597</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>283.3095309301341</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>56.48608317082464</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>299.442471006479</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>323.6182987317324</v>
       </c>
       <c r="G41" t="n">
         <v>329.6718695751077</v>
       </c>
       <c r="H41" t="n">
-        <v>239.0313842171678</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>167.6816123413427</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>292.5358324228187</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="42">
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>81.69656086153627</v>
+        <v>81.69656086153634</v>
       </c>
       <c r="C42" t="n">
-        <v>87.35001917859248</v>
+        <v>87.3500191785925</v>
       </c>
       <c r="D42" t="n">
-        <v>62.43685882583705</v>
+        <v>62.43685882583708</v>
       </c>
       <c r="E42" t="n">
-        <v>72.35786895836532</v>
+        <v>72.35786895836534</v>
       </c>
       <c r="F42" t="n">
-        <v>59.83066733474078</v>
+        <v>59.83066733474081</v>
       </c>
       <c r="G42" t="n">
-        <v>51.54115222795677</v>
+        <v>51.5411522279568</v>
       </c>
       <c r="H42" t="n">
-        <v>18.99792406864868</v>
+        <v>18.9979240686487</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>70.30579116669006</v>
+        <v>70.30579116669008</v>
       </c>
       <c r="T42" t="n">
         <v>111.4562334893435</v>
@@ -3878,10 +3878,10 @@
         <v>140.9285535533745</v>
       </c>
       <c r="V42" t="n">
-        <v>148.2331662908466</v>
+        <v>148.2331662908467</v>
       </c>
       <c r="W42" t="n">
-        <v>166.3137820011915</v>
+        <v>166.3137820011916</v>
       </c>
       <c r="X42" t="n">
         <v>120.7860648596698</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.40812674187529</v>
+        <v>96.40812674187532</v>
       </c>
       <c r="C43" t="n">
-        <v>83.66098818239382</v>
+        <v>83.66098818239385</v>
       </c>
       <c r="D43" t="n">
-        <v>65.33000176571085</v>
+        <v>65.33000176571088</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>63.29905942439069</v>
       </c>
       <c r="F43" t="n">
-        <v>62.48345666099598</v>
+        <v>62.48345666099601</v>
       </c>
       <c r="G43" t="n">
-        <v>83.53788735057549</v>
+        <v>83.53788735057552</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>71.94703616512533</v>
       </c>
       <c r="I43" t="n">
-        <v>49.74970353918425</v>
+        <v>49.74970353918428</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>59.31401233223555</v>
+        <v>59.31401233223558</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>126.898621262632</v>
       </c>
       <c r="T43" t="n">
         <v>141.7679529659691</v>
       </c>
       <c r="U43" t="n">
-        <v>20.76239718843291</v>
+        <v>202.339825451489</v>
       </c>
       <c r="V43" t="n">
-        <v>169.2607863181306</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>202.417012138607</v>
       </c>
       <c r="X43" t="n">
-        <v>142.4647951835007</v>
+        <v>3.076545505386508</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.0731091189597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>280.001090012005</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>283.3095309301341</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>29.40027014159698</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>329.6718695751077</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>63.43736166090157</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>87.84107999117305</v>
       </c>
       <c r="T44" t="n">
         <v>132.691210645285</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>244.8576567737109</v>
       </c>
       <c r="W44" t="n">
-        <v>266.8545522517461</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.69656086153631</v>
+        <v>81.69656086153634</v>
       </c>
       <c r="C45" t="n">
-        <v>87.35001917859248</v>
+        <v>87.3500191785925</v>
       </c>
       <c r="D45" t="n">
-        <v>62.43685882583705</v>
+        <v>62.43685882583708</v>
       </c>
       <c r="E45" t="n">
-        <v>72.35786895836532</v>
+        <v>72.35786895836534</v>
       </c>
       <c r="F45" t="n">
-        <v>59.83066733474078</v>
+        <v>59.83066733474081</v>
       </c>
       <c r="G45" t="n">
-        <v>51.54115222795677</v>
+        <v>51.5411522279568</v>
       </c>
       <c r="H45" t="n">
-        <v>18.99792406864861</v>
+        <v>18.9979240686487</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>70.30579116669006</v>
+        <v>70.30579116669008</v>
       </c>
       <c r="T45" t="n">
         <v>111.4562334893435</v>
       </c>
       <c r="U45" t="n">
-        <v>140.9285535533745</v>
+        <v>140.9285535533747</v>
       </c>
       <c r="V45" t="n">
         <v>148.2331662908466</v>
       </c>
       <c r="W45" t="n">
-        <v>166.3137820011915</v>
+        <v>166.3137820011916</v>
       </c>
       <c r="X45" t="n">
         <v>120.7860648596698</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.40812674187529</v>
+        <v>96.40812674187532</v>
       </c>
       <c r="C46" t="n">
-        <v>83.66098818239382</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.33000176571088</v>
       </c>
       <c r="E46" t="n">
-        <v>63.29905942439066</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.48345666099598</v>
+        <v>62.48345666099601</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>83.53788735057552</v>
       </c>
       <c r="H46" t="n">
-        <v>71.9470361651253</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>49.74970353918425</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>59.31401233223555</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.898621262632</v>
       </c>
       <c r="T46" t="n">
         <v>141.7679529659691</v>
       </c>
       <c r="U46" t="n">
-        <v>202.3398254514889</v>
+        <v>202.339825451489</v>
       </c>
       <c r="V46" t="n">
-        <v>1.305151581844963</v>
+        <v>169.2607863181307</v>
       </c>
       <c r="W46" t="n">
-        <v>202.417012138607</v>
+        <v>86.66566666673256</v>
       </c>
       <c r="X46" t="n">
-        <v>142.4647951835007</v>
+        <v>142.4647951835008</v>
       </c>
       <c r="Y46" t="n">
         <v>135.0731091189597</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>544.1825868565553</v>
+        <v>960.735871735196</v>
       </c>
       <c r="C11" t="n">
-        <v>544.1825868565553</v>
+        <v>674.5646283714242</v>
       </c>
       <c r="D11" t="n">
-        <v>268.4965585678787</v>
+        <v>398.8786000827475</v>
       </c>
       <c r="E11" t="n">
-        <v>268.4965585678787</v>
+        <v>398.8786000827475</v>
       </c>
       <c r="F11" t="n">
-        <v>268.4965585678787</v>
+        <v>398.8786000827475</v>
       </c>
       <c r="G11" t="n">
-        <v>268.4965585678787</v>
+        <v>332.5747016596984</v>
       </c>
       <c r="H11" t="n">
-        <v>27.05071592427482</v>
+        <v>91.12885901609457</v>
       </c>
       <c r="I11" t="n">
         <v>27.05071592427482</v>
@@ -5044,19 +5044,19 @@
         <v>27.05071592427482</v>
       </c>
       <c r="K11" t="n">
-        <v>338.1698881845192</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="L11" t="n">
-        <v>672.92249774742</v>
+        <v>361.8033254871757</v>
       </c>
       <c r="M11" t="n">
-        <v>807.7908635030175</v>
+        <v>401.4890308657732</v>
       </c>
       <c r="N11" t="n">
-        <v>852.6171882541304</v>
+        <v>736.2416404286741</v>
       </c>
       <c r="O11" t="n">
-        <v>1187.369797817031</v>
+        <v>864.6549645154098</v>
       </c>
       <c r="P11" t="n">
         <v>1187.369797817031</v>
@@ -5068,25 +5068,25 @@
         <v>1352.535796213741</v>
       </c>
       <c r="S11" t="n">
-        <v>1352.535796213741</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.179566488551</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="U11" t="n">
-        <v>1116.804200487195</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="V11" t="n">
-        <v>1116.804200487195</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="W11" t="n">
-        <v>847.2541477076529</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="X11" t="n">
-        <v>847.2541477076529</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="Y11" t="n">
-        <v>847.2541477076529</v>
+        <v>1263.807432586294</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>383.12595894866</v>
+        <v>383.1259589486596</v>
       </c>
       <c r="C12" t="n">
-        <v>294.8936163440211</v>
+        <v>294.8936163440208</v>
       </c>
       <c r="D12" t="n">
-        <v>231.8260821765089</v>
+        <v>231.8260821765086</v>
       </c>
       <c r="E12" t="n">
-        <v>158.7373256529076</v>
+        <v>158.7373256529072</v>
       </c>
       <c r="F12" t="n">
-        <v>98.30230814306839</v>
+        <v>98.3023081430682</v>
       </c>
       <c r="G12" t="n">
-        <v>46.24053821583913</v>
+        <v>46.24053821583914</v>
       </c>
       <c r="H12" t="n">
         <v>27.05071592427482</v>
@@ -5123,19 +5123,19 @@
         <v>27.05071592427482</v>
       </c>
       <c r="K12" t="n">
-        <v>202.2890182700691</v>
+        <v>295.2213353930437</v>
       </c>
       <c r="L12" t="n">
-        <v>537.0416278329699</v>
+        <v>334.8422150175207</v>
       </c>
       <c r="M12" t="n">
-        <v>602.1502720265345</v>
+        <v>659.8845880946285</v>
       </c>
       <c r="N12" t="n">
-        <v>683.030577087939</v>
+        <v>994.6371976575294</v>
       </c>
       <c r="O12" t="n">
-        <v>1017.78318665084</v>
+        <v>1329.38980722043</v>
       </c>
       <c r="P12" t="n">
         <v>1352.535796213741</v>
@@ -5153,19 +5153,19 @@
         <v>1168.937791510677</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.585717214339</v>
+        <v>1026.585717214338</v>
       </c>
       <c r="V12" t="n">
-        <v>876.8552462134833</v>
+        <v>876.855246213483</v>
       </c>
       <c r="W12" t="n">
-        <v>708.8615270203605</v>
+        <v>708.8615270203602</v>
       </c>
       <c r="X12" t="n">
-        <v>586.855400899482</v>
+        <v>586.8554008994817</v>
       </c>
       <c r="Y12" t="n">
-        <v>465.6477375966764</v>
+        <v>465.6477375966761</v>
       </c>
     </row>
     <row r="13">
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3451411854012</v>
+        <v>427.4013673444593</v>
       </c>
       <c r="C13" t="n">
-        <v>162.8390925163165</v>
+        <v>427.4013673444593</v>
       </c>
       <c r="D13" t="n">
-        <v>162.8390925163165</v>
+        <v>361.411466571014</v>
       </c>
       <c r="E13" t="n">
-        <v>162.8390925163165</v>
+        <v>297.4730227079931</v>
       </c>
       <c r="F13" t="n">
-        <v>99.72448982844179</v>
+        <v>234.3584200201183</v>
       </c>
       <c r="G13" t="n">
-        <v>99.72448982844179</v>
+        <v>149.9767156255976</v>
       </c>
       <c r="H13" t="n">
-        <v>27.05071592427482</v>
+        <v>77.30294172143064</v>
       </c>
       <c r="I13" t="n">
         <v>27.05071592427482</v>
       </c>
       <c r="J13" t="n">
-        <v>69.26391373996331</v>
+        <v>69.26391373996339</v>
       </c>
       <c r="K13" t="n">
-        <v>215.2453154905102</v>
+        <v>215.2453154905103</v>
       </c>
       <c r="L13" t="n">
         <v>434.6885190855015</v>
       </c>
       <c r="M13" t="n">
-        <v>672.1504084533362</v>
+        <v>672.1504084533364</v>
       </c>
       <c r="N13" t="n">
-        <v>911.0769684668513</v>
+        <v>911.0769684668514</v>
       </c>
       <c r="O13" t="n">
         <v>1122.751482514723</v>
@@ -5226,25 +5226,25 @@
         <v>1292.622652443806</v>
       </c>
       <c r="S13" t="n">
-        <v>1211.646655124363</v>
+        <v>1292.622652443806</v>
       </c>
       <c r="T13" t="n">
-        <v>1068.446702633485</v>
+        <v>1292.622652443806</v>
       </c>
       <c r="U13" t="n">
-        <v>864.0630405612737</v>
+        <v>1088.238990371595</v>
       </c>
       <c r="V13" t="n">
-        <v>693.0925493308387</v>
+        <v>917.2684991411597</v>
       </c>
       <c r="W13" t="n">
-        <v>488.6309209080032</v>
+        <v>712.8068707183244</v>
       </c>
       <c r="X13" t="n">
-        <v>344.7270873893156</v>
+        <v>568.9030371996367</v>
       </c>
       <c r="Y13" t="n">
-        <v>344.7270873893156</v>
+        <v>432.4655532410916</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>595.3837290039719</v>
+        <v>657.3289798295107</v>
       </c>
       <c r="C14" t="n">
-        <v>595.3837290039719</v>
+        <v>657.3289798295107</v>
       </c>
       <c r="D14" t="n">
-        <v>595.3837290039719</v>
+        <v>601.4984470275833</v>
       </c>
       <c r="E14" t="n">
-        <v>595.3837290039719</v>
+        <v>601.4984470275833</v>
       </c>
       <c r="F14" t="n">
-        <v>268.4965585678787</v>
+        <v>601.4984470275833</v>
       </c>
       <c r="G14" t="n">
         <v>268.4965585678787</v>
       </c>
       <c r="H14" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I14" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J14" t="n">
         <v>153.0515443925346</v>
       </c>
       <c r="K14" t="n">
-        <v>153.0515443925346</v>
+        <v>464.170716652779</v>
       </c>
       <c r="L14" t="n">
-        <v>160.9674802424671</v>
+        <v>798.9233262156797</v>
       </c>
       <c r="M14" t="n">
-        <v>200.6531856210647</v>
+        <v>1133.67593577858</v>
       </c>
       <c r="N14" t="n">
-        <v>535.4057951839654</v>
+        <v>1323.209448592444</v>
       </c>
       <c r="O14" t="n">
-        <v>864.6549645154096</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="P14" t="n">
-        <v>1187.369797817031</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="Q14" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="R14" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="S14" t="n">
         <v>1263.807432586293</v>
       </c>
       <c r="T14" t="n">
-        <v>1263.807432586293</v>
+        <v>1129.775906681964</v>
       </c>
       <c r="U14" t="n">
-        <v>1263.807432586293</v>
+        <v>960.4005406806082</v>
       </c>
       <c r="V14" t="n">
-        <v>1263.807432586293</v>
+        <v>960.4005406806082</v>
       </c>
       <c r="W14" t="n">
-        <v>1204.52751915045</v>
+        <v>960.4005406806082</v>
       </c>
       <c r="X14" t="n">
-        <v>1204.52751915045</v>
+        <v>960.4005406806082</v>
       </c>
       <c r="Y14" t="n">
-        <v>898.4552898550694</v>
+        <v>960.4005406806082</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>383.1259589486597</v>
+        <v>383.1259589486596</v>
       </c>
       <c r="C15" t="n">
-        <v>294.8936163440209</v>
+        <v>294.8936163440208</v>
       </c>
       <c r="D15" t="n">
         <v>231.8260821765087</v>
       </c>
       <c r="E15" t="n">
-        <v>158.7373256529074</v>
+        <v>158.7373256529073</v>
       </c>
       <c r="F15" t="n">
-        <v>98.3023081430682</v>
+        <v>98.30230814306816</v>
       </c>
       <c r="G15" t="n">
-        <v>46.24053821583914</v>
+        <v>46.24053821583912</v>
       </c>
       <c r="H15" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I15" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J15" t="n">
-        <v>27.05071592427482</v>
+        <v>109.8779913497619</v>
       </c>
       <c r="K15" t="n">
-        <v>295.2213353930437</v>
+        <v>378.0486108185307</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9739449559445</v>
+        <v>417.6694904430078</v>
       </c>
       <c r="M15" t="n">
-        <v>913.7568925961248</v>
+        <v>482.7781346365723</v>
       </c>
       <c r="N15" t="n">
-        <v>994.6371976575293</v>
+        <v>817.530744199473</v>
       </c>
       <c r="O15" t="n">
-        <v>1329.38980722043</v>
+        <v>1152.283353762374</v>
       </c>
       <c r="P15" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="Q15" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="R15" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="S15" t="n">
-        <v>1281.519845540317</v>
+        <v>1281.519845540316</v>
       </c>
       <c r="T15" t="n">
-        <v>1168.937791510677</v>
+        <v>1168.937791510676</v>
       </c>
       <c r="U15" t="n">
-        <v>1026.585717214339</v>
+        <v>1026.585717214338</v>
       </c>
       <c r="V15" t="n">
-        <v>876.8552462134835</v>
+        <v>876.855246213483</v>
       </c>
       <c r="W15" t="n">
-        <v>708.8615270203608</v>
+        <v>708.8615270203603</v>
       </c>
       <c r="X15" t="n">
-        <v>586.8554008994822</v>
+        <v>586.8554008994818</v>
       </c>
       <c r="Y15" t="n">
-        <v>465.6477375966762</v>
+        <v>465.6477375966761</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>377.8736727498019</v>
+        <v>241.3607649552617</v>
       </c>
       <c r="C16" t="n">
-        <v>293.3676240807172</v>
+        <v>241.3607649552617</v>
       </c>
       <c r="D16" t="n">
-        <v>227.3777233072719</v>
+        <v>175.3708641818164</v>
       </c>
       <c r="E16" t="n">
-        <v>174.5470230066703</v>
+        <v>111.4324203187955</v>
       </c>
       <c r="F16" t="n">
         <v>111.4324203187955</v>
       </c>
       <c r="G16" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="H16" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I16" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J16" t="n">
         <v>69.2639137399633</v>
       </c>
       <c r="K16" t="n">
-        <v>215.2453154905101</v>
+        <v>215.2453154905102</v>
       </c>
       <c r="L16" t="n">
-        <v>434.6885190855014</v>
+        <v>434.6885190855015</v>
       </c>
       <c r="M16" t="n">
         <v>672.1504084533362</v>
       </c>
       <c r="N16" t="n">
-        <v>911.0769684668513</v>
+        <v>911.0769684668506</v>
       </c>
       <c r="O16" t="n">
-        <v>1122.751482514723</v>
+        <v>1122.751482514722</v>
       </c>
       <c r="P16" t="n">
-        <v>1292.609012859316</v>
+        <v>1292.609012859315</v>
       </c>
       <c r="Q16" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="R16" t="n">
-        <v>1292.622652443806</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="S16" t="n">
-        <v>1164.442226925996</v>
+        <v>1224.35537069593</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.442226925996</v>
+        <v>1081.155418205052</v>
       </c>
       <c r="U16" t="n">
-        <v>960.0585648537844</v>
+        <v>994.5161482896792</v>
       </c>
       <c r="V16" t="n">
-        <v>960.0585648537844</v>
+        <v>823.5456570592443</v>
       </c>
       <c r="W16" t="n">
-        <v>755.5969364309491</v>
+        <v>619.0840286364089</v>
       </c>
       <c r="X16" t="n">
-        <v>611.6931029122615</v>
+        <v>475.1801951177213</v>
       </c>
       <c r="Y16" t="n">
-        <v>475.2556189537163</v>
+        <v>338.7427111591761</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>401.0989155391277</v>
+        <v>957.7352032909116</v>
       </c>
       <c r="C17" t="n">
-        <v>401.0989155391277</v>
+        <v>957.7352032909116</v>
       </c>
       <c r="D17" t="n">
-        <v>401.0989155391277</v>
+        <v>957.7352032909116</v>
       </c>
       <c r="E17" t="n">
-        <v>332.5747016596984</v>
+        <v>928.3856174636767</v>
       </c>
       <c r="F17" t="n">
-        <v>332.5747016596984</v>
+        <v>601.4984470275833</v>
       </c>
       <c r="G17" t="n">
-        <v>332.5747016596984</v>
+        <v>268.4965585678787</v>
       </c>
       <c r="H17" t="n">
-        <v>91.12885901609455</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I17" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J17" t="n">
-        <v>27.05071592427482</v>
+        <v>153.0515443925346</v>
       </c>
       <c r="K17" t="n">
-        <v>338.1698881845192</v>
+        <v>464.170716652779</v>
       </c>
       <c r="L17" t="n">
-        <v>672.92249774742</v>
+        <v>472.0866525027115</v>
       </c>
       <c r="M17" t="n">
-        <v>972.956861899727</v>
+        <v>511.772357881309</v>
       </c>
       <c r="N17" t="n">
-        <v>1017.78318665084</v>
+        <v>556.5986826324219</v>
       </c>
       <c r="O17" t="n">
-        <v>1352.535796213741</v>
+        <v>864.6549645154091</v>
       </c>
       <c r="P17" t="n">
-        <v>1352.535796213741</v>
+        <v>1187.369797817031</v>
       </c>
       <c r="Q17" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="R17" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="S17" t="n">
         <v>1263.807432586293</v>
@@ -5554,13 +5554,13 @@
         <v>1263.807432586293</v>
       </c>
       <c r="W17" t="n">
-        <v>994.2573798067515</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="X17" t="n">
-        <v>704.1704763902253</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="Y17" t="n">
-        <v>704.1704763902253</v>
+        <v>957.7352032909116</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>383.1259589486596</v>
+        <v>383.1259589486597</v>
       </c>
       <c r="C18" t="n">
-        <v>294.8936163440208</v>
+        <v>294.8936163440209</v>
       </c>
       <c r="D18" t="n">
-        <v>231.8260821765086</v>
+        <v>231.8260821765087</v>
       </c>
       <c r="E18" t="n">
-        <v>158.7373256529072</v>
+        <v>158.7373256529074</v>
       </c>
       <c r="F18" t="n">
-        <v>98.3023081430682</v>
+        <v>98.30230814306819</v>
       </c>
       <c r="G18" t="n">
-        <v>46.24053821583914</v>
+        <v>46.24053821583912</v>
       </c>
       <c r="H18" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I18" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J18" t="n">
         <v>109.8779913497619</v>
       </c>
       <c r="K18" t="n">
-        <v>109.8779913497619</v>
+        <v>378.0486108185307</v>
       </c>
       <c r="L18" t="n">
-        <v>149.4988709742389</v>
+        <v>417.6694904430078</v>
       </c>
       <c r="M18" t="n">
-        <v>484.2514805371397</v>
+        <v>482.7781346365723</v>
       </c>
       <c r="N18" t="n">
-        <v>683.030577087939</v>
+        <v>563.6584396979769</v>
       </c>
       <c r="O18" t="n">
-        <v>1017.78318665084</v>
+        <v>898.4110492608776</v>
       </c>
       <c r="P18" t="n">
-        <v>1352.535796213741</v>
+        <v>1169.438956589472</v>
       </c>
       <c r="Q18" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="R18" t="n">
-        <v>1352.535796213741</v>
+        <v>1352.53579621374</v>
       </c>
       <c r="S18" t="n">
-        <v>1281.519845540317</v>
+        <v>1281.519845540316</v>
       </c>
       <c r="T18" t="n">
-        <v>1168.937791510677</v>
+        <v>1168.937791510676</v>
       </c>
       <c r="U18" t="n">
         <v>1026.585717214338</v>
@@ -5633,13 +5633,13 @@
         <v>876.855246213483</v>
       </c>
       <c r="W18" t="n">
-        <v>708.8615270203602</v>
+        <v>708.8615270203603</v>
       </c>
       <c r="X18" t="n">
-        <v>586.8554008994817</v>
+        <v>586.8554008994818</v>
       </c>
       <c r="Y18" t="n">
-        <v>465.6477375966761</v>
+        <v>465.6477375966762</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.04061669772011</v>
+        <v>357.4358029608837</v>
       </c>
       <c r="C19" t="n">
-        <v>93.04061669772011</v>
+        <v>272.929754291799</v>
       </c>
       <c r="D19" t="n">
-        <v>27.05071592427482</v>
+        <v>206.9398535183537</v>
       </c>
       <c r="E19" t="n">
-        <v>27.05071592427482</v>
+        <v>162.8390925163165</v>
       </c>
       <c r="F19" t="n">
-        <v>27.05071592427482</v>
+        <v>99.72448982844179</v>
       </c>
       <c r="G19" t="n">
-        <v>27.05071592427482</v>
+        <v>99.72448982844179</v>
       </c>
       <c r="H19" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="I19" t="n">
-        <v>27.05071592427482</v>
+        <v>27.0507159242748</v>
       </c>
       <c r="J19" t="n">
-        <v>69.26391373996331</v>
+        <v>69.2639137399633</v>
       </c>
       <c r="K19" t="n">
         <v>215.2453154905102</v>
@@ -5697,28 +5697,28 @@
         <v>1352.535796213741</v>
       </c>
       <c r="R19" t="n">
-        <v>1292.622652443806</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S19" t="n">
-        <v>1164.442226925996</v>
+        <v>1224.355370695931</v>
       </c>
       <c r="T19" t="n">
-        <v>1021.242274435118</v>
+        <v>1081.155418205053</v>
       </c>
       <c r="U19" t="n">
-        <v>816.8586123629068</v>
+        <v>876.7717561328418</v>
       </c>
       <c r="V19" t="n">
-        <v>645.8881211324717</v>
+        <v>705.8012649024067</v>
       </c>
       <c r="W19" t="n">
-        <v>441.4264927096364</v>
+        <v>501.3396364795714</v>
       </c>
       <c r="X19" t="n">
-        <v>297.5226591909487</v>
+        <v>357.4358029608837</v>
       </c>
       <c r="Y19" t="n">
-        <v>190.4225629016345</v>
+        <v>357.4358029608837</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>629.6239146490448</v>
+        <v>960.7358717351956</v>
       </c>
       <c r="C20" t="n">
-        <v>629.6239146490448</v>
+        <v>674.5646283714237</v>
       </c>
       <c r="D20" t="n">
-        <v>353.9378863603681</v>
+        <v>656.405028791155</v>
       </c>
       <c r="E20" t="n">
         <v>353.9378863603681</v>
@@ -5755,19 +5755,19 @@
         <v>153.0515443925346</v>
       </c>
       <c r="K20" t="n">
-        <v>153.0515443925346</v>
+        <v>464.170716652779</v>
       </c>
       <c r="L20" t="n">
-        <v>160.9674802424671</v>
+        <v>750.8165867644034</v>
       </c>
       <c r="M20" t="n">
-        <v>200.6531856210647</v>
+        <v>790.5022921430009</v>
       </c>
       <c r="N20" t="n">
-        <v>535.4057951839654</v>
+        <v>835.3286168941138</v>
       </c>
       <c r="O20" t="n">
-        <v>870.1584047468663</v>
+        <v>864.6549645154096</v>
       </c>
       <c r="P20" t="n">
         <v>1187.369797817031</v>
@@ -5785,19 +5785,19 @@
         <v>1263.807432586293</v>
       </c>
       <c r="U20" t="n">
-        <v>1225.783047360952</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="V20" t="n">
-        <v>1225.783047360952</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="W20" t="n">
-        <v>1225.783047360952</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="X20" t="n">
-        <v>935.6961439444258</v>
+        <v>1263.807432586293</v>
       </c>
       <c r="Y20" t="n">
-        <v>629.6239146490448</v>
+        <v>1263.807432586293</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>27.05071592427482</v>
       </c>
       <c r="K21" t="n">
-        <v>27.05071592427482</v>
+        <v>295.2213353930437</v>
       </c>
       <c r="L21" t="n">
-        <v>353.9447882087021</v>
+        <v>629.9739449559445</v>
       </c>
       <c r="M21" t="n">
-        <v>419.0534324022666</v>
+        <v>695.082589149509</v>
       </c>
       <c r="N21" t="n">
-        <v>499.9337374636712</v>
+        <v>1029.83519871241</v>
       </c>
       <c r="O21" t="n">
-        <v>834.686347026572</v>
+        <v>1082.160576274695</v>
       </c>
       <c r="P21" t="n">
         <v>1169.438956589473</v>
@@ -5855,25 +5855,25 @@
         <v>1352.535796213741</v>
       </c>
       <c r="R21" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S21" t="n">
-        <v>1281.519845540316</v>
+        <v>1281.519845540317</v>
       </c>
       <c r="T21" t="n">
-        <v>1168.937791510676</v>
+        <v>1168.937791510677</v>
       </c>
       <c r="U21" t="n">
-        <v>1026.585717214338</v>
+        <v>1026.585717214339</v>
       </c>
       <c r="V21" t="n">
-        <v>876.855246213483</v>
+        <v>876.8552462134835</v>
       </c>
       <c r="W21" t="n">
-        <v>708.8615270203603</v>
+        <v>708.8615270203608</v>
       </c>
       <c r="X21" t="n">
-        <v>586.8554008994818</v>
+        <v>586.8554008994822</v>
       </c>
       <c r="Y21" t="n">
         <v>465.6477375966762</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.979060560741</v>
+        <v>161.0851752324033</v>
       </c>
       <c r="C22" t="n">
-        <v>156.979060560741</v>
+        <v>76.57912656331867</v>
       </c>
       <c r="D22" t="n">
-        <v>90.98915978729569</v>
+        <v>76.57912656331867</v>
       </c>
       <c r="E22" t="n">
-        <v>27.05071592427482</v>
+        <v>76.57912656331867</v>
       </c>
       <c r="F22" t="n">
-        <v>27.05071592427482</v>
+        <v>76.57912656331867</v>
       </c>
       <c r="G22" t="n">
         <v>27.05071592427482</v>
@@ -5910,22 +5910,22 @@
         <v>27.05071592427482</v>
       </c>
       <c r="J22" t="n">
-        <v>69.26391373996302</v>
+        <v>69.26391373996324</v>
       </c>
       <c r="K22" t="n">
-        <v>215.2453154905099</v>
+        <v>215.2453154905102</v>
       </c>
       <c r="L22" t="n">
-        <v>434.6885190855012</v>
+        <v>434.6885190855015</v>
       </c>
       <c r="M22" t="n">
-        <v>672.150408453336</v>
+        <v>672.1504084533362</v>
       </c>
       <c r="N22" t="n">
-        <v>911.0769684668511</v>
+        <v>911.0769684668513</v>
       </c>
       <c r="O22" t="n">
-        <v>1122.751482514722</v>
+        <v>1122.751482514723</v>
       </c>
       <c r="P22" t="n">
         <v>1292.609012859316</v>
@@ -5952,10 +5952,10 @@
         <v>441.4264927096361</v>
       </c>
       <c r="X22" t="n">
-        <v>390.7984907232006</v>
+        <v>297.5226591909485</v>
       </c>
       <c r="Y22" t="n">
-        <v>254.3610067646554</v>
+        <v>161.0851752324033</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1762.53380960516</v>
+        <v>1671.809372960149</v>
       </c>
       <c r="C23" t="n">
-        <v>1476.362566241388</v>
+        <v>1385.638129596377</v>
       </c>
       <c r="D23" t="n">
-        <v>1200.676537952712</v>
+        <v>1109.9521013077</v>
       </c>
       <c r="E23" t="n">
-        <v>1019.514476479771</v>
+        <v>955.4363333879517</v>
       </c>
       <c r="F23" t="n">
-        <v>692.6273060436779</v>
+        <v>628.5491629518583</v>
       </c>
       <c r="G23" t="n">
-        <v>359.6254175839732</v>
+        <v>295.5472744921535</v>
       </c>
       <c r="H23" t="n">
-        <v>118.1795749403693</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I23" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J23" t="n">
         <v>180.1022603168094</v>
@@ -5998,43 +5998,43 @@
         <v>929.1613549281301</v>
       </c>
       <c r="M23" t="n">
-        <v>1300.67382835404</v>
+        <v>1431.666194390948</v>
       </c>
       <c r="N23" t="n">
-        <v>1795.792546479732</v>
+        <v>1926.78491251664</v>
       </c>
       <c r="O23" t="n">
-        <v>2217.19076072915</v>
+        <v>2348.183126766058</v>
       </c>
       <c r="P23" t="n">
-        <v>2539.905594030772</v>
+        <v>2670.89796006768</v>
       </c>
       <c r="Q23" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="R23" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="S23" t="n">
-        <v>2616.343228800034</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="T23" t="n">
-        <v>2482.311702895706</v>
+        <v>2571.040066523154</v>
       </c>
       <c r="U23" t="n">
-        <v>2312.93633689435</v>
+        <v>2571.040066523154</v>
       </c>
       <c r="V23" t="n">
-        <v>2065.605370456258</v>
+        <v>2571.040066523154</v>
       </c>
       <c r="W23" t="n">
-        <v>2065.605370456258</v>
+        <v>2571.040066523154</v>
       </c>
       <c r="X23" t="n">
-        <v>2065.605370456258</v>
+        <v>2280.953163106627</v>
       </c>
       <c r="Y23" t="n">
-        <v>2065.605370456258</v>
+        <v>1974.880933811246</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>113.4308491272702</v>
       </c>
       <c r="I24" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J24" t="n">
         <v>136.9287072740367</v>
@@ -6074,13 +6074,13 @@
         <v>405.0993267428055</v>
       </c>
       <c r="L24" t="n">
-        <v>826.5374258917241</v>
+        <v>826.5374258917242</v>
       </c>
       <c r="M24" t="n">
-        <v>1371.136003722288</v>
+        <v>1371.136003722289</v>
       </c>
       <c r="N24" t="n">
-        <v>1945.547217407816</v>
+        <v>1675.301005719094</v>
       </c>
       <c r="O24" t="n">
         <v>2133.147027208699</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>202.5459243806551</v>
+        <v>538.958131937819</v>
       </c>
       <c r="C25" t="n">
-        <v>118.0398757115705</v>
+        <v>454.4520832687342</v>
       </c>
       <c r="D25" t="n">
-        <v>118.0398757115705</v>
+        <v>388.4621824952889</v>
       </c>
       <c r="E25" t="n">
-        <v>54.10143184854963</v>
+        <v>324.523738632268</v>
       </c>
       <c r="F25" t="n">
-        <v>54.10143184854963</v>
+        <v>261.4091359443932</v>
       </c>
       <c r="G25" t="n">
-        <v>54.10143184854963</v>
+        <v>177.0274315498725</v>
       </c>
       <c r="H25" t="n">
-        <v>54.10143184854963</v>
+        <v>104.3536576457055</v>
       </c>
       <c r="I25" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J25" t="n">
-        <v>96.31462966423815</v>
+        <v>96.31462966423811</v>
       </c>
       <c r="K25" t="n">
-        <v>242.2960314147851</v>
+        <v>242.296031414785</v>
       </c>
       <c r="L25" t="n">
-        <v>461.7392350097764</v>
+        <v>461.7392350097763</v>
       </c>
       <c r="M25" t="n">
-        <v>699.2011243776112</v>
+        <v>699.201124377611</v>
       </c>
       <c r="N25" t="n">
-        <v>938.1276843911263</v>
+        <v>938.1276843911261</v>
       </c>
       <c r="O25" t="n">
         <v>1149.802198438997</v>
@@ -6168,31 +6168,31 @@
         <v>1319.659728783591</v>
       </c>
       <c r="Q25" t="n">
-        <v>1379.586512138016</v>
+        <v>1379.586512138015</v>
       </c>
       <c r="R25" t="n">
-        <v>1319.673368368081</v>
+        <v>1319.67336836808</v>
       </c>
       <c r="S25" t="n">
-        <v>1191.492942850271</v>
+        <v>1191.49294285027</v>
       </c>
       <c r="T25" t="n">
-        <v>1048.292990359393</v>
+        <v>1048.292990359392</v>
       </c>
       <c r="U25" t="n">
-        <v>843.9093282871821</v>
+        <v>843.9093282871813</v>
       </c>
       <c r="V25" t="n">
-        <v>672.9388370567472</v>
+        <v>743.4197603606544</v>
       </c>
       <c r="W25" t="n">
-        <v>468.4772086339118</v>
+        <v>538.958131937819</v>
       </c>
       <c r="X25" t="n">
-        <v>436.3653545431147</v>
+        <v>538.958131937819</v>
       </c>
       <c r="Y25" t="n">
-        <v>299.9278705845695</v>
+        <v>538.958131937819</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>836.2013905955027</v>
+        <v>1583.396106262054</v>
       </c>
       <c r="C26" t="n">
-        <v>465.5093747581869</v>
+        <v>1212.704090424738</v>
       </c>
       <c r="D26" t="n">
-        <v>465.5093747581869</v>
+        <v>852.4972896625177</v>
       </c>
       <c r="E26" t="n">
         <v>465.5093747581869</v>
       </c>
       <c r="F26" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="G26" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="H26" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I26" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J26" t="n">
-        <v>180.1022603168094</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="K26" t="n">
-        <v>491.2214325770539</v>
+        <v>365.220604108794</v>
       </c>
       <c r="L26" t="n">
-        <v>929.1613549281301</v>
+        <v>803.1605264598702</v>
       </c>
       <c r="M26" t="n">
-        <v>1431.666194390948</v>
+        <v>1305.665365922688</v>
       </c>
       <c r="N26" t="n">
-        <v>1926.78491251664</v>
+        <v>1800.78408404838</v>
       </c>
       <c r="O26" t="n">
-        <v>2217.19076072915</v>
+        <v>2222.182298297798</v>
       </c>
       <c r="P26" t="n">
-        <v>2539.905594030772</v>
+        <v>2544.89713159942</v>
       </c>
       <c r="Q26" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="R26" t="n">
-        <v>2657.429232071743</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="S26" t="n">
-        <v>2484.180095970751</v>
+        <v>2531.82245632649</v>
       </c>
       <c r="T26" t="n">
-        <v>2265.627797592879</v>
+        <v>2531.82245632649</v>
       </c>
       <c r="U26" t="n">
-        <v>2011.731659117979</v>
+        <v>2531.82245632649</v>
       </c>
       <c r="V26" t="n">
-        <v>1679.879920206343</v>
+        <v>2531.82245632649</v>
       </c>
       <c r="W26" t="n">
-        <v>1325.809094953257</v>
+        <v>2177.751631073405</v>
       </c>
       <c r="X26" t="n">
-        <v>1325.809094953257</v>
+        <v>2177.751631073405</v>
       </c>
       <c r="Y26" t="n">
-        <v>1223.793723920144</v>
+        <v>1970.988439586696</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>113.4308491272702</v>
       </c>
       <c r="I27" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J27" t="n">
-        <v>136.9287072740367</v>
+        <v>134.8531150540835</v>
       </c>
       <c r="K27" t="n">
-        <v>136.9287072740367</v>
+        <v>134.8531150540835</v>
       </c>
       <c r="L27" t="n">
         <v>556.2912142030021</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="C28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="D28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="E28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="F28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="G28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="H28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="K28" t="n">
         <v>117.2440244977761</v>
@@ -6408,28 +6408,28 @@
         <v>757.0364436828085</v>
       </c>
       <c r="R28" t="n">
-        <v>612.6025274393296</v>
+        <v>731.2050192372922</v>
       </c>
       <c r="S28" t="n">
-        <v>399.9013294479756</v>
+        <v>731.2050192372922</v>
       </c>
       <c r="T28" t="n">
-        <v>343.0838327449289</v>
+        <v>503.4842942728703</v>
       </c>
       <c r="U28" t="n">
-        <v>343.0838327449289</v>
+        <v>503.4842942728703</v>
       </c>
       <c r="V28" t="n">
-        <v>343.0838327449289</v>
+        <v>503.4842942728703</v>
       </c>
       <c r="W28" t="n">
-        <v>54.10143184854963</v>
+        <v>503.4842942728703</v>
       </c>
       <c r="X28" t="n">
-        <v>54.10143184854963</v>
+        <v>275.0596882806387</v>
       </c>
       <c r="Y28" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>935.2160931843324</v>
+        <v>1718.979418311756</v>
       </c>
       <c r="C29" t="n">
-        <v>935.2160931843324</v>
+        <v>1418.61886616113</v>
       </c>
       <c r="D29" t="n">
-        <v>575.0092924221118</v>
+        <v>1418.61886616113</v>
       </c>
       <c r="E29" t="n">
-        <v>465.5093747581869</v>
+        <v>1031.630951256799</v>
       </c>
       <c r="F29" t="n">
-        <v>54.10143184854963</v>
+        <v>620.223008347162</v>
       </c>
       <c r="G29" t="n">
-        <v>54.10143184854963</v>
+        <v>202.7003474139133</v>
       </c>
       <c r="H29" t="n">
-        <v>54.10143184854963</v>
+        <v>202.7003474139133</v>
       </c>
       <c r="I29" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J29" t="n">
-        <v>180.1022603168094</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="K29" t="n">
-        <v>491.2214325770539</v>
+        <v>365.220604108794</v>
       </c>
       <c r="L29" t="n">
-        <v>929.1613549281301</v>
+        <v>803.1605264598702</v>
       </c>
       <c r="M29" t="n">
-        <v>1431.666194390948</v>
+        <v>1305.665365922688</v>
       </c>
       <c r="N29" t="n">
-        <v>1926.78491251664</v>
+        <v>1800.78408404838</v>
       </c>
       <c r="O29" t="n">
-        <v>2217.19076072915</v>
+        <v>2222.182298297798</v>
       </c>
       <c r="P29" t="n">
-        <v>2539.905594030772</v>
+        <v>2544.89713159942</v>
       </c>
       <c r="Q29" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="R29" t="n">
         <v>2657.429232071743</v>
       </c>
       <c r="S29" t="n">
-        <v>2484.180095970751</v>
+        <v>2484.180095970752</v>
       </c>
       <c r="T29" t="n">
-        <v>2265.627797592879</v>
+        <v>2484.180095970752</v>
       </c>
       <c r="U29" t="n">
-        <v>2011.731659117979</v>
+        <v>2484.180095970752</v>
       </c>
       <c r="V29" t="n">
-        <v>1679.879920206343</v>
+        <v>2484.180095970752</v>
       </c>
       <c r="W29" t="n">
-        <v>1325.809094953257</v>
+        <v>2484.180095970752</v>
       </c>
       <c r="X29" t="n">
-        <v>1325.809094953257</v>
+        <v>2109.572420080682</v>
       </c>
       <c r="Y29" t="n">
-        <v>935.2160931843324</v>
+        <v>1718.979418311756</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>113.4308491272702</v>
       </c>
       <c r="I30" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J30" t="n">
-        <v>136.9287072740367</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0993267428055</v>
+        <v>317.9499546783514</v>
       </c>
       <c r="L30" t="n">
-        <v>826.5374258917241</v>
+        <v>739.38805382727</v>
       </c>
       <c r="M30" t="n">
-        <v>1100.889792033567</v>
+        <v>1283.986631657835</v>
       </c>
       <c r="N30" t="n">
-        <v>1675.301005719094</v>
+        <v>1858.397845343362</v>
       </c>
       <c r="O30" t="n">
-        <v>2133.147027208699</v>
+        <v>2316.243866832967</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.182282793689</v>
+        <v>2667.279122417957</v>
       </c>
       <c r="Q30" t="n">
         <v>2667.279122417957</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="C31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="D31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="E31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="F31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="G31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="H31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="K31" t="n">
         <v>117.2440244977761</v>
@@ -6642,31 +6642,31 @@
         <v>780.4136763599799</v>
       </c>
       <c r="Q31" t="n">
-        <v>757.0364436828085</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="R31" t="n">
-        <v>612.6025274393296</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="S31" t="n">
-        <v>399.9013294479756</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="T31" t="n">
-        <v>172.1806044835538</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="U31" t="n">
-        <v>54.10143184854963</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="V31" t="n">
-        <v>54.10143184854963</v>
+        <v>780.4136763599799</v>
       </c>
       <c r="W31" t="n">
-        <v>54.10143184854963</v>
+        <v>503.4842942728703</v>
       </c>
       <c r="X31" t="n">
-        <v>54.10143184854963</v>
+        <v>275.0596882806387</v>
       </c>
       <c r="Y31" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>959.1417730041064</v>
+        <v>1409.671417062014</v>
       </c>
       <c r="C32" t="n">
-        <v>959.1417730041064</v>
+        <v>1123.500173698242</v>
       </c>
       <c r="D32" t="n">
-        <v>683.4557447154298</v>
+        <v>847.8141454095651</v>
       </c>
       <c r="E32" t="n">
-        <v>380.9886022846429</v>
+        <v>545.3470029787782</v>
       </c>
       <c r="F32" t="n">
-        <v>54.10143184854963</v>
+        <v>295.5472744921535</v>
       </c>
       <c r="G32" t="n">
-        <v>54.10143184854963</v>
+        <v>295.5472744921535</v>
       </c>
       <c r="H32" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I32" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J32" t="n">
         <v>180.1022603168094</v>
@@ -6706,13 +6706,13 @@
         <v>491.2214325770539</v>
       </c>
       <c r="L32" t="n">
-        <v>929.1613549281301</v>
+        <v>798.1689888912226</v>
       </c>
       <c r="M32" t="n">
-        <v>1431.666194390948</v>
+        <v>1300.673828354041</v>
       </c>
       <c r="N32" t="n">
-        <v>1926.78491251664</v>
+        <v>1795.792546479732</v>
       </c>
       <c r="O32" t="n">
         <v>2217.19076072915</v>
@@ -6721,31 +6721,31 @@
         <v>2539.905594030772</v>
       </c>
       <c r="Q32" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="R32" t="n">
-        <v>2705.071592427481</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="S32" t="n">
-        <v>2616.343228800034</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="T32" t="n">
-        <v>2482.311702895706</v>
+        <v>2705.071592427482</v>
       </c>
       <c r="U32" t="n">
-        <v>2312.93633689435</v>
+        <v>2535.696226426126</v>
       </c>
       <c r="V32" t="n">
-        <v>2065.605370456258</v>
+        <v>2288.365259988034</v>
       </c>
       <c r="W32" t="n">
-        <v>1796.055317676716</v>
+        <v>2018.815207208492</v>
       </c>
       <c r="X32" t="n">
-        <v>1505.96841426019</v>
+        <v>2018.815207208492</v>
       </c>
       <c r="Y32" t="n">
-        <v>1199.896184964809</v>
+        <v>1712.742977913111</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>113.4308491272702</v>
       </c>
       <c r="I33" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J33" t="n">
         <v>136.9287072740367</v>
@@ -6785,10 +6785,10 @@
         <v>405.0993267428055</v>
       </c>
       <c r="L33" t="n">
-        <v>826.5374258917241</v>
+        <v>826.5374258917242</v>
       </c>
       <c r="M33" t="n">
-        <v>1100.889792033567</v>
+        <v>1371.136003722289</v>
       </c>
       <c r="N33" t="n">
         <v>1675.301005719094</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.1358911566786</v>
+        <v>90.75394495276349</v>
       </c>
       <c r="C34" t="n">
-        <v>183.2059353098697</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="D34" t="n">
-        <v>117.2160345364244</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2160345364244</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="F34" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="G34" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="H34" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="I34" t="n">
-        <v>54.10143184854963</v>
+        <v>54.10143184854964</v>
       </c>
       <c r="J34" t="n">
-        <v>96.31462966423813</v>
+        <v>96.31462966423811</v>
       </c>
       <c r="K34" t="n">
         <v>242.296031414785</v>
       </c>
       <c r="L34" t="n">
-        <v>461.7392350097764</v>
+        <v>461.7392350097763</v>
       </c>
       <c r="M34" t="n">
-        <v>699.2011243776112</v>
+        <v>699.201124377611</v>
       </c>
       <c r="N34" t="n">
-        <v>938.1276843911263</v>
+        <v>938.1276843911261</v>
       </c>
       <c r="O34" t="n">
         <v>1149.802198438997</v>
@@ -6879,31 +6879,31 @@
         <v>1319.659728783591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1379.586512138016</v>
+        <v>1379.586512138015</v>
       </c>
       <c r="R34" t="n">
-        <v>1319.673368368081</v>
+        <v>1319.67336836808</v>
       </c>
       <c r="S34" t="n">
-        <v>1191.492942850271</v>
+        <v>1191.49294285027</v>
       </c>
       <c r="T34" t="n">
-        <v>1048.292990359393</v>
+        <v>1048.292990359392</v>
       </c>
       <c r="U34" t="n">
-        <v>843.9093282871818</v>
+        <v>843.9093282871813</v>
       </c>
       <c r="V34" t="n">
-        <v>672.9388370567467</v>
+        <v>672.9388370567463</v>
       </c>
       <c r="W34" t="n">
-        <v>468.4772086339113</v>
+        <v>468.4772086339108</v>
       </c>
       <c r="X34" t="n">
-        <v>324.5733751152237</v>
+        <v>324.5733751152231</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.1358911566786</v>
+        <v>188.135891156678</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>424.1307474757993</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="C35" t="n">
-        <v>424.1307474757993</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="D35" t="n">
-        <v>424.1307474757993</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="E35" t="n">
-        <v>424.1307474757993</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="F35" t="n">
-        <v>424.1307474757993</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="G35" t="n">
-        <v>91.12885901609455</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="H35" t="n">
-        <v>91.12885901609455</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I35" t="n">
         <v>27.05071592427482</v>
@@ -6946,16 +6946,16 @@
         <v>34.96665177420733</v>
       </c>
       <c r="M35" t="n">
-        <v>369.7192613371082</v>
+        <v>360.3157437863174</v>
       </c>
       <c r="N35" t="n">
-        <v>704.471870900009</v>
+        <v>695.0683533492182</v>
       </c>
       <c r="O35" t="n">
-        <v>864.6549645154096</v>
+        <v>1029.820962912119</v>
       </c>
       <c r="P35" t="n">
-        <v>1187.369797817031</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="Q35" t="n">
         <v>1352.535796213741</v>
@@ -6973,16 +6973,16 @@
         <v>960.4005406806086</v>
       </c>
       <c r="V35" t="n">
-        <v>727.2023083268969</v>
+        <v>713.0695742425169</v>
       </c>
       <c r="W35" t="n">
-        <v>727.2023083268969</v>
+        <v>443.5195214629753</v>
       </c>
       <c r="X35" t="n">
-        <v>727.2023083268969</v>
+        <v>153.4326180464491</v>
       </c>
       <c r="Y35" t="n">
-        <v>727.2023083268969</v>
+        <v>27.05071592427482</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>383.12595894866</v>
+        <v>383.1259589486599</v>
       </c>
       <c r="C36" t="n">
-        <v>294.8936163440211</v>
+        <v>294.893616344021</v>
       </c>
       <c r="D36" t="n">
-        <v>231.8260821765089</v>
+        <v>231.8260821765088</v>
       </c>
       <c r="E36" t="n">
         <v>158.7373256529075</v>
       </c>
       <c r="F36" t="n">
-        <v>98.30230814306827</v>
+        <v>98.30230814306826</v>
       </c>
       <c r="G36" t="n">
-        <v>46.24053821583914</v>
+        <v>46.24053821583917</v>
       </c>
       <c r="H36" t="n">
         <v>27.05071592427482</v>
@@ -7016,22 +7016,22 @@
         <v>27.05071592427482</v>
       </c>
       <c r="J36" t="n">
-        <v>27.05071592427482</v>
+        <v>109.8779913497619</v>
       </c>
       <c r="K36" t="n">
-        <v>27.05071592427482</v>
+        <v>378.0486108185307</v>
       </c>
       <c r="L36" t="n">
-        <v>112.8557503384854</v>
+        <v>417.6694904430078</v>
       </c>
       <c r="M36" t="n">
-        <v>447.6083599013863</v>
+        <v>482.7781346365723</v>
       </c>
       <c r="N36" t="n">
-        <v>782.3609694642871</v>
+        <v>817.5307441994731</v>
       </c>
       <c r="O36" t="n">
-        <v>834.686347026572</v>
+        <v>1146.292967596162</v>
       </c>
       <c r="P36" t="n">
         <v>1169.438956589473</v>
@@ -7043,10 +7043,10 @@
         <v>1352.535796213741</v>
       </c>
       <c r="S36" t="n">
-        <v>1281.519845540317</v>
+        <v>1281.519845540316</v>
       </c>
       <c r="T36" t="n">
-        <v>1168.937791510677</v>
+        <v>1168.937791510676</v>
       </c>
       <c r="U36" t="n">
         <v>1026.585717214339</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>161.0851752324033</v>
+        <v>448.7928133256693</v>
       </c>
       <c r="C37" t="n">
-        <v>76.57912656331867</v>
+        <v>364.2867646565846</v>
       </c>
       <c r="D37" t="n">
-        <v>27.05071592427482</v>
+        <v>298.2968638831393</v>
       </c>
       <c r="E37" t="n">
-        <v>27.05071592427482</v>
+        <v>234.3584200201184</v>
       </c>
       <c r="F37" t="n">
-        <v>27.05071592427482</v>
+        <v>234.3584200201184</v>
       </c>
       <c r="G37" t="n">
-        <v>27.05071592427482</v>
+        <v>149.9767156255976</v>
       </c>
       <c r="H37" t="n">
-        <v>27.05071592427482</v>
+        <v>77.30294172143066</v>
       </c>
       <c r="I37" t="n">
         <v>27.05071592427482</v>
       </c>
       <c r="J37" t="n">
-        <v>69.2639137399633</v>
+        <v>69.26391373996329</v>
       </c>
       <c r="K37" t="n">
         <v>215.2453154905102</v>
       </c>
       <c r="L37" t="n">
-        <v>434.6885190855015</v>
+        <v>434.6885190855014</v>
       </c>
       <c r="M37" t="n">
         <v>672.1504084533362</v>
@@ -7119,28 +7119,28 @@
         <v>1352.535796213741</v>
       </c>
       <c r="R37" t="n">
-        <v>1292.622652443806</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S37" t="n">
-        <v>1164.442226925996</v>
+        <v>1224.355370695931</v>
       </c>
       <c r="T37" t="n">
-        <v>1021.242274435118</v>
+        <v>1201.948196660087</v>
       </c>
       <c r="U37" t="n">
-        <v>816.8586123629066</v>
+        <v>1201.948196660087</v>
       </c>
       <c r="V37" t="n">
-        <v>645.8881211324715</v>
+        <v>1030.977705429652</v>
       </c>
       <c r="W37" t="n">
-        <v>441.4264927096361</v>
+        <v>826.5160770068165</v>
       </c>
       <c r="X37" t="n">
-        <v>297.5226591909485</v>
+        <v>682.6122434881289</v>
       </c>
       <c r="Y37" t="n">
-        <v>161.0851752324033</v>
+        <v>546.1747595295838</v>
       </c>
     </row>
     <row r="38">
@@ -7150,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>302.7367442129515</v>
+        <v>351.25675053413</v>
       </c>
       <c r="C38" t="n">
-        <v>302.7367442129515</v>
+        <v>351.25675053413</v>
       </c>
       <c r="D38" t="n">
-        <v>27.05071592427481</v>
+        <v>351.25675053413</v>
       </c>
       <c r="E38" t="n">
-        <v>27.05071592427481</v>
+        <v>48.7896081033432</v>
       </c>
       <c r="F38" t="n">
-        <v>27.05071592427481</v>
+        <v>48.7896081033432</v>
       </c>
       <c r="G38" t="n">
-        <v>27.05071592427481</v>
+        <v>48.7896081033432</v>
       </c>
       <c r="H38" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I38" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J38" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="K38" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="L38" t="n">
-        <v>155.4640400110103</v>
+        <v>361.8033254871756</v>
       </c>
       <c r="M38" t="n">
-        <v>195.1497453896079</v>
+        <v>500.576007331213</v>
       </c>
       <c r="N38" t="n">
-        <v>529.9023549525086</v>
+        <v>835.3286168941138</v>
       </c>
       <c r="O38" t="n">
-        <v>864.6549645154093</v>
+        <v>864.6549645154096</v>
       </c>
       <c r="P38" t="n">
         <v>1187.369797817031</v>
       </c>
       <c r="Q38" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R38" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S38" t="n">
         <v>1263.807432586293</v>
@@ -7207,19 +7207,19 @@
         <v>1129.775906681965</v>
       </c>
       <c r="U38" t="n">
-        <v>960.4005406806084</v>
+        <v>960.4005406806086</v>
       </c>
       <c r="V38" t="n">
-        <v>713.0695742425166</v>
+        <v>960.4005406806086</v>
       </c>
       <c r="W38" t="n">
-        <v>605.8083050640491</v>
+        <v>960.4005406806086</v>
       </c>
       <c r="X38" t="n">
-        <v>605.8083050640491</v>
+        <v>960.4005406806086</v>
       </c>
       <c r="Y38" t="n">
-        <v>605.8083050640491</v>
+        <v>654.3283113852276</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>383.1259589486599</v>
+        <v>383.1259589486597</v>
       </c>
       <c r="C39" t="n">
-        <v>294.893616344021</v>
+        <v>294.8936163440209</v>
       </c>
       <c r="D39" t="n">
-        <v>231.8260821765088</v>
+        <v>231.8260821765087</v>
       </c>
       <c r="E39" t="n">
-        <v>158.7373256529075</v>
+        <v>158.7373256529074</v>
       </c>
       <c r="F39" t="n">
-        <v>98.30230814306825</v>
+        <v>98.3023081430682</v>
       </c>
       <c r="G39" t="n">
-        <v>46.24053821583916</v>
+        <v>46.24053821583914</v>
       </c>
       <c r="H39" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I39" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J39" t="n">
-        <v>27.05071592427481</v>
+        <v>109.8779913497619</v>
       </c>
       <c r="K39" t="n">
-        <v>27.05071592427481</v>
+        <v>256.3317103382763</v>
       </c>
       <c r="L39" t="n">
-        <v>84.30082283936576</v>
+        <v>295.9525899627533</v>
       </c>
       <c r="M39" t="n">
-        <v>419.0534324022665</v>
+        <v>630.7051995256542</v>
       </c>
       <c r="N39" t="n">
-        <v>499.9337374636711</v>
+        <v>965.457809088555</v>
       </c>
       <c r="O39" t="n">
-        <v>834.6863470265719</v>
+        <v>1017.78318665084</v>
       </c>
       <c r="P39" t="n">
-        <v>1169.438956589473</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="Q39" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R39" t="n">
         <v>1352.535796213741</v>
       </c>
       <c r="S39" t="n">
-        <v>1281.519845540316</v>
+        <v>1281.519845540317</v>
       </c>
       <c r="T39" t="n">
-        <v>1168.937791510676</v>
+        <v>1168.937791510677</v>
       </c>
       <c r="U39" t="n">
         <v>1026.585717214339</v>
       </c>
       <c r="V39" t="n">
-        <v>876.8552462134833</v>
+        <v>876.855246213483</v>
       </c>
       <c r="W39" t="n">
-        <v>708.8615270203605</v>
+        <v>708.8615270203603</v>
       </c>
       <c r="X39" t="n">
-        <v>586.855400899482</v>
+        <v>586.8554008994818</v>
       </c>
       <c r="Y39" t="n">
-        <v>465.6477375966764</v>
+        <v>465.6477375966762</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>90.98915978729572</v>
+        <v>63.70322902848891</v>
       </c>
       <c r="C40" t="n">
-        <v>90.98915978729572</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="D40" t="n">
-        <v>90.98915978729572</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="E40" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="F40" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="G40" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="H40" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I40" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J40" t="n">
         <v>69.2639137399633</v>
       </c>
       <c r="K40" t="n">
-        <v>215.2453154905102</v>
+        <v>215.2453154905103</v>
       </c>
       <c r="L40" t="n">
-        <v>434.6885190855014</v>
+        <v>434.6885190855016</v>
       </c>
       <c r="M40" t="n">
-        <v>672.1504084533361</v>
+        <v>672.1504084533364</v>
       </c>
       <c r="N40" t="n">
-        <v>911.0769684668512</v>
+        <v>911.0769684668514</v>
       </c>
       <c r="O40" t="n">
-        <v>1122.751482514722</v>
+        <v>1122.751482514723</v>
       </c>
       <c r="P40" t="n">
         <v>1292.609012859316</v>
       </c>
       <c r="Q40" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R40" t="n">
-        <v>1292.622652443805</v>
+        <v>1292.622652443806</v>
       </c>
       <c r="S40" t="n">
-        <v>1164.442226925995</v>
+        <v>1164.442226925996</v>
       </c>
       <c r="T40" t="n">
-        <v>1021.242274435117</v>
+        <v>1021.242274435118</v>
       </c>
       <c r="U40" t="n">
-        <v>816.8586123629063</v>
+        <v>816.8586123629066</v>
       </c>
       <c r="V40" t="n">
-        <v>645.8881211324713</v>
+        <v>645.8881211324715</v>
       </c>
       <c r="W40" t="n">
-        <v>441.4264927096359</v>
+        <v>441.4264927096361</v>
       </c>
       <c r="X40" t="n">
-        <v>297.5226591909482</v>
+        <v>297.5226591909485</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.085175232403</v>
+        <v>161.0851752324033</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>887.6696903913552</v>
+        <v>1046.463566918359</v>
       </c>
       <c r="C41" t="n">
-        <v>601.4984470275833</v>
+        <v>1046.463566918359</v>
       </c>
       <c r="D41" t="n">
-        <v>601.4984470275833</v>
+        <v>989.4069172508598</v>
       </c>
       <c r="E41" t="n">
-        <v>601.4984470275833</v>
+        <v>686.9397748200729</v>
       </c>
       <c r="F41" t="n">
-        <v>601.4984470275833</v>
+        <v>360.0526043839795</v>
       </c>
       <c r="G41" t="n">
-        <v>268.4965585678787</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="H41" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I41" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J41" t="n">
         <v>153.0515443925346</v>
@@ -7420,43 +7420,43 @@
         <v>472.0866525027115</v>
       </c>
       <c r="M41" t="n">
-        <v>511.772357881309</v>
+        <v>790.5022921430009</v>
       </c>
       <c r="N41" t="n">
-        <v>556.5986826324219</v>
+        <v>835.3286168941138</v>
       </c>
       <c r="O41" t="n">
-        <v>891.3512921953227</v>
+        <v>864.6549645154096</v>
       </c>
       <c r="P41" t="n">
-        <v>1214.066125496944</v>
+        <v>1187.369797817031</v>
       </c>
       <c r="Q41" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R41" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S41" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="T41" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="U41" t="n">
-        <v>1183.160430212384</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="V41" t="n">
-        <v>1183.160430212384</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="W41" t="n">
-        <v>1183.160430212384</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="X41" t="n">
-        <v>1183.160430212384</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="Y41" t="n">
-        <v>887.6696903913552</v>
+        <v>1046.463566918359</v>
       </c>
     </row>
     <row r="42">
@@ -7466,55 +7466,55 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>383.1259589486597</v>
+        <v>383.1259589486599</v>
       </c>
       <c r="C42" t="n">
-        <v>294.8936163440209</v>
+        <v>294.893616344021</v>
       </c>
       <c r="D42" t="n">
-        <v>231.8260821765087</v>
+        <v>231.8260821765088</v>
       </c>
       <c r="E42" t="n">
-        <v>158.7373256529074</v>
+        <v>158.7373256529075</v>
       </c>
       <c r="F42" t="n">
-        <v>98.30230814306819</v>
+        <v>98.30230814306826</v>
       </c>
       <c r="G42" t="n">
-        <v>46.24053821583913</v>
+        <v>46.24053821583917</v>
       </c>
       <c r="H42" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I42" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J42" t="n">
-        <v>109.8779913497619</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="K42" t="n">
-        <v>378.0486108185307</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="L42" t="n">
-        <v>417.6694904430078</v>
+        <v>361.8033254871756</v>
       </c>
       <c r="M42" t="n">
-        <v>752.4221000059085</v>
+        <v>696.5559350500764</v>
       </c>
       <c r="N42" t="n">
-        <v>1087.174709568809</v>
+        <v>994.6371976575293</v>
       </c>
       <c r="O42" t="n">
-        <v>1139.500087131094</v>
+        <v>1329.38980722043</v>
       </c>
       <c r="P42" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="Q42" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R42" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S42" t="n">
         <v>1281.519845540316</v>
@@ -7523,19 +7523,19 @@
         <v>1168.937791510676</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.585717214338</v>
+        <v>1026.585717214339</v>
       </c>
       <c r="V42" t="n">
-        <v>876.855246213483</v>
+        <v>876.8552462134833</v>
       </c>
       <c r="W42" t="n">
-        <v>708.8615270203603</v>
+        <v>708.8615270203605</v>
       </c>
       <c r="X42" t="n">
-        <v>586.8554008994818</v>
+        <v>586.855400899482</v>
       </c>
       <c r="Y42" t="n">
-        <v>465.6477375966762</v>
+        <v>465.6477375966764</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>375.2951982463555</v>
+        <v>511.907416013544</v>
       </c>
       <c r="C43" t="n">
-        <v>290.7891495772708</v>
+        <v>427.4013673444593</v>
       </c>
       <c r="D43" t="n">
-        <v>224.7992488038255</v>
+        <v>361.411466571014</v>
       </c>
       <c r="E43" t="n">
-        <v>224.7992488038255</v>
+        <v>297.4730227079932</v>
       </c>
       <c r="F43" t="n">
-        <v>161.6846461159508</v>
+        <v>234.3584200201184</v>
       </c>
       <c r="G43" t="n">
-        <v>77.3029417214301</v>
+        <v>149.9767156255976</v>
       </c>
       <c r="H43" t="n">
-        <v>77.3029417214301</v>
+        <v>77.30294172143066</v>
       </c>
       <c r="I43" t="n">
-        <v>27.05071592427429</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J43" t="n">
-        <v>69.26391373996279</v>
+        <v>69.26391373996329</v>
       </c>
       <c r="K43" t="n">
-        <v>215.2453154905097</v>
+        <v>215.2453154905103</v>
       </c>
       <c r="L43" t="n">
-        <v>434.688519085501</v>
+        <v>434.6885190855016</v>
       </c>
       <c r="M43" t="n">
-        <v>672.1504084533358</v>
+        <v>672.1504084533362</v>
       </c>
       <c r="N43" t="n">
-        <v>911.0769684668509</v>
+        <v>911.0769684668513</v>
       </c>
       <c r="O43" t="n">
-        <v>1122.751482514722</v>
+        <v>1122.751482514723</v>
       </c>
       <c r="P43" t="n">
         <v>1292.609012859316</v>
       </c>
       <c r="Q43" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R43" t="n">
-        <v>1292.622652443805</v>
+        <v>1292.622652443806</v>
       </c>
       <c r="S43" t="n">
-        <v>1292.622652443805</v>
+        <v>1164.442226925996</v>
       </c>
       <c r="T43" t="n">
-        <v>1149.422699952928</v>
+        <v>1021.242274435118</v>
       </c>
       <c r="U43" t="n">
-        <v>1128.450581580773</v>
+        <v>816.8586123629066</v>
       </c>
       <c r="V43" t="n">
-        <v>957.4800903503381</v>
+        <v>816.8586123629066</v>
       </c>
       <c r="W43" t="n">
-        <v>753.0184619275027</v>
+        <v>612.3969839400711</v>
       </c>
       <c r="X43" t="n">
-        <v>609.1146284088151</v>
+        <v>609.2893622174585</v>
       </c>
       <c r="Y43" t="n">
-        <v>472.6771444502699</v>
+        <v>609.2893622174585</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>360.0526043839795</v>
+        <v>406.9973449471362</v>
       </c>
       <c r="C44" t="n">
-        <v>360.0526043839795</v>
+        <v>120.8261015833643</v>
       </c>
       <c r="D44" t="n">
-        <v>360.0526043839795</v>
+        <v>91.12885901609459</v>
       </c>
       <c r="E44" t="n">
-        <v>360.0526043839795</v>
+        <v>91.12885901609459</v>
       </c>
       <c r="F44" t="n">
-        <v>360.0526043839795</v>
+        <v>91.12885901609459</v>
       </c>
       <c r="G44" t="n">
-        <v>27.05071592427481</v>
+        <v>91.12885901609459</v>
       </c>
       <c r="H44" t="n">
-        <v>27.05071592427481</v>
+        <v>91.12885901609459</v>
       </c>
       <c r="I44" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J44" t="n">
-        <v>27.05071592427481</v>
+        <v>153.0515443925346</v>
       </c>
       <c r="K44" t="n">
-        <v>27.05071592427481</v>
+        <v>464.170716652779</v>
       </c>
       <c r="L44" t="n">
-        <v>155.4640400110103</v>
+        <v>472.0866525027115</v>
       </c>
       <c r="M44" t="n">
-        <v>195.1497453896079</v>
+        <v>511.772357881309</v>
       </c>
       <c r="N44" t="n">
-        <v>529.9023549525086</v>
+        <v>835.3286168941142</v>
       </c>
       <c r="O44" t="n">
-        <v>864.6549645154093</v>
+        <v>864.65496451541</v>
       </c>
       <c r="P44" t="n">
-        <v>1187.369797817031</v>
+        <v>1187.369797817032</v>
       </c>
       <c r="Q44" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R44" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S44" t="n">
-        <v>1352.53579621374</v>
+        <v>1263.807432586294</v>
       </c>
       <c r="T44" t="n">
-        <v>1218.504270309412</v>
+        <v>1129.775906681965</v>
       </c>
       <c r="U44" t="n">
-        <v>1218.504270309412</v>
+        <v>960.4005406806091</v>
       </c>
       <c r="V44" t="n">
-        <v>1218.504270309412</v>
+        <v>713.0695742425173</v>
       </c>
       <c r="W44" t="n">
-        <v>948.9542175298707</v>
+        <v>713.0695742425173</v>
       </c>
       <c r="X44" t="n">
-        <v>948.9542175298707</v>
+        <v>713.0695742425173</v>
       </c>
       <c r="Y44" t="n">
-        <v>642.8819882344897</v>
+        <v>406.9973449471362</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>383.1259589486597</v>
+        <v>383.1259589486599</v>
       </c>
       <c r="C45" t="n">
-        <v>294.8936163440208</v>
+        <v>294.893616344021</v>
       </c>
       <c r="D45" t="n">
-        <v>231.8260821765086</v>
+        <v>231.8260821765089</v>
       </c>
       <c r="E45" t="n">
-        <v>158.7373256529073</v>
+        <v>158.7373256529074</v>
       </c>
       <c r="F45" t="n">
-        <v>98.30230814306813</v>
+        <v>98.30230814306827</v>
       </c>
       <c r="G45" t="n">
-        <v>46.24053821583907</v>
+        <v>46.24053821583917</v>
       </c>
       <c r="H45" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I45" t="n">
-        <v>27.05071592427481</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="J45" t="n">
         <v>109.8779913497619</v>
@@ -7733,46 +7733,46 @@
         <v>378.0486108185307</v>
       </c>
       <c r="L45" t="n">
-        <v>417.6694904430078</v>
+        <v>712.8012203814317</v>
       </c>
       <c r="M45" t="n">
-        <v>752.4221000059085</v>
+        <v>777.9098645749962</v>
       </c>
       <c r="N45" t="n">
-        <v>833.3024050673131</v>
+        <v>858.7901696364007</v>
       </c>
       <c r="O45" t="n">
-        <v>1168.055014630214</v>
+        <v>1146.292967596163</v>
       </c>
       <c r="P45" t="n">
-        <v>1191.201003623524</v>
+        <v>1169.438956589473</v>
       </c>
       <c r="Q45" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="R45" t="n">
-        <v>1352.53579621374</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S45" t="n">
-        <v>1281.519845540316</v>
+        <v>1281.519845540317</v>
       </c>
       <c r="T45" t="n">
-        <v>1168.937791510676</v>
+        <v>1168.937791510677</v>
       </c>
       <c r="U45" t="n">
-        <v>1026.585717214338</v>
+        <v>1026.585717214339</v>
       </c>
       <c r="V45" t="n">
-        <v>876.855246213483</v>
+        <v>876.8552462134834</v>
       </c>
       <c r="W45" t="n">
-        <v>708.8615270203603</v>
+        <v>708.8615270203605</v>
       </c>
       <c r="X45" t="n">
-        <v>586.8554008994818</v>
+        <v>586.855400899482</v>
       </c>
       <c r="Y45" t="n">
-        <v>465.6477375966762</v>
+        <v>465.6477375966764</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.5358108455779</v>
+        <v>240.5369237801156</v>
       </c>
       <c r="C46" t="n">
-        <v>277.0297621764932</v>
+        <v>240.5369237801156</v>
       </c>
       <c r="D46" t="n">
-        <v>277.0297621764932</v>
+        <v>174.5470230066703</v>
       </c>
       <c r="E46" t="n">
-        <v>213.0913183134723</v>
+        <v>174.5470230066703</v>
       </c>
       <c r="F46" t="n">
-        <v>149.9767156255976</v>
+        <v>111.4324203187956</v>
       </c>
       <c r="G46" t="n">
-        <v>149.9767156255976</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="H46" t="n">
-        <v>77.30294172143063</v>
+        <v>27.05071592427482</v>
       </c>
       <c r="I46" t="n">
-        <v>27.05071592427481</v>
+        <v>27.0507159242752</v>
       </c>
       <c r="J46" t="n">
-        <v>69.2639137399633</v>
+        <v>69.26391373996367</v>
       </c>
       <c r="K46" t="n">
-        <v>215.2453154905102</v>
+        <v>215.2453154905105</v>
       </c>
       <c r="L46" t="n">
-        <v>434.6885190855015</v>
+        <v>434.6885190855018</v>
       </c>
       <c r="M46" t="n">
-        <v>672.1504084533362</v>
+        <v>672.1504084533366</v>
       </c>
       <c r="N46" t="n">
-        <v>911.0769684668513</v>
+        <v>911.0769684668517</v>
       </c>
       <c r="O46" t="n">
         <v>1122.751482514723</v>
@@ -7830,28 +7830,28 @@
         <v>1352.535796213741</v>
       </c>
       <c r="R46" t="n">
-        <v>1292.622652443806</v>
+        <v>1352.535796213741</v>
       </c>
       <c r="S46" t="n">
-        <v>1292.622652443806</v>
+        <v>1224.355370695931</v>
       </c>
       <c r="T46" t="n">
-        <v>1149.422699952928</v>
+        <v>1081.155418205053</v>
       </c>
       <c r="U46" t="n">
-        <v>945.0390378807169</v>
+        <v>876.771756132842</v>
       </c>
       <c r="V46" t="n">
-        <v>943.7207029495604</v>
+        <v>705.801264902407</v>
       </c>
       <c r="W46" t="n">
-        <v>739.259074526725</v>
+        <v>618.2601874612629</v>
       </c>
       <c r="X46" t="n">
-        <v>595.3552410080374</v>
+        <v>474.3563539425753</v>
       </c>
       <c r="Y46" t="n">
-        <v>458.9177570494923</v>
+        <v>337.9188699840301</v>
       </c>
     </row>
   </sheetData>
@@ -8692,22 +8692,22 @@
         <v>48.58691566960339</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1112290740114</v>
+        <v>22.84943891214834</v>
       </c>
       <c r="L11" t="n">
         <v>330.1380542555236</v>
       </c>
       <c r="M11" t="n">
-        <v>96.14410139090901</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>292.8548331432202</v>
       </c>
       <c r="O11" t="n">
-        <v>308.511375698591</v>
+        <v>100.0878550155959</v>
       </c>
       <c r="P11" t="n">
-        <v>8.696077405794796</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
         <v>220.8075902863009</v>
@@ -8771,22 +8771,22 @@
         <v>47.47076218282615</v>
       </c>
       <c r="K12" t="n">
-        <v>181.1728190961377</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>298.1128585236604</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>262.5593221045892</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>256.4366712136327</v>
       </c>
       <c r="O12" t="n">
-        <v>285.2800323238545</v>
+        <v>285.2800323238546</v>
       </c>
       <c r="P12" t="n">
-        <v>314.7541621915053</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>33.53407659450751</v>
@@ -8929,25 +8929,25 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>22.84943891214834</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>330.1380542555235</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>298.0473779639426</v>
       </c>
       <c r="N14" t="n">
-        <v>292.8548331432202</v>
+        <v>146.1688768310618</v>
       </c>
       <c r="O14" t="n">
-        <v>302.9523451617661</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>334.6706564983419</v>
+        <v>8.696077405794796</v>
       </c>
       <c r="Q14" t="n">
-        <v>220.8075902863009</v>
+        <v>53.97324847144276</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9005,25 +9005,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>47.47076218282615</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>298.1128585236604</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>220.8831347945613</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>256.4366712136325</v>
       </c>
       <c r="O15" t="n">
-        <v>285.2800323238545</v>
+        <v>285.2800323238544</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>178.8954075333899</v>
       </c>
       <c r="Q15" t="n">
         <v>33.53407659450751</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.58691566960339</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K17" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>330.1380542555236</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>262.9784432057671</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>308.511375698591</v>
+        <v>281.5453881431228</v>
       </c>
       <c r="P17" t="n">
-        <v>8.696077405794796</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.97324847144276</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9245,25 +9245,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>4.164432888264713</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>272.3676417872084</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>119.089688373126</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>285.2800323238545</v>
+        <v>285.2800323238544</v>
       </c>
       <c r="P18" t="n">
-        <v>314.7541621915053</v>
+        <v>250.3857760962467</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.53407659450751</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9403,22 +9403,22 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K20" t="n">
-        <v>22.84943891214834</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>281.5453881431231</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>292.8548331432202</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>308.511375698591</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>329.111625961517</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
         <v>220.8075902863009</v>
@@ -9482,22 +9482,22 @@
         <v>47.47076218282615</v>
       </c>
       <c r="K21" t="n">
-        <v>4.164432888264713</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L21" t="n">
-        <v>290.1749420807578</v>
+        <v>298.1128585236604</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>256.4366712136326</v>
       </c>
       <c r="O21" t="n">
-        <v>285.2800323238545</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>314.7541621915053</v>
+        <v>64.78019325400768</v>
       </c>
       <c r="Q21" t="n">
         <v>218.4803792452831</v>
@@ -9646,7 +9646,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M23" t="n">
-        <v>335.1785535831439</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N23" t="n">
         <v>454.8408013884635</v>
@@ -9658,7 +9658,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q23" t="n">
-        <v>220.8075902863009</v>
+        <v>88.49206903689934</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9728,10 +9728,10 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>498.5160693172957</v>
+        <v>225.5400979145461</v>
       </c>
       <c r="O24" t="n">
-        <v>136.6408406450492</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
         <v>331.2012793855346</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>175.8604797789567</v>
+        <v>48.58691566960339</v>
       </c>
       <c r="K26" t="n">
         <v>337.1112290740114</v>
@@ -9889,13 +9889,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>263.7166672638531</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q26" t="n">
-        <v>220.8075902863009</v>
+        <v>215.7656331462528</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>129.0381189560927</v>
       </c>
       <c r="K27" t="n">
         <v>4.164432888264713</v>
       </c>
       <c r="L27" t="n">
-        <v>383.577401317665</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>175.8604797789567</v>
+        <v>48.58691566960339</v>
       </c>
       <c r="K29" t="n">
         <v>337.1112290740114</v>
@@ -10126,13 +10126,13 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O29" t="n">
-        <v>263.7166672638531</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P29" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q29" t="n">
-        <v>220.8075902863009</v>
+        <v>215.7656331462528</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,16 +10190,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>47.47076218282615</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>270.6780923123069</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>211.3572948972505</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
         <v>498.5160693172957</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>33.53407659450751</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10354,7 +10354,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L32" t="n">
-        <v>434.3676631324684</v>
+        <v>302.052141883067</v>
       </c>
       <c r="M32" t="n">
         <v>467.4940748325458</v>
@@ -10363,7 +10363,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O32" t="n">
-        <v>263.7166672638531</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P32" t="n">
         <v>334.6706564983419</v>
@@ -10436,10 +10436,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
-        <v>211.3572948972505</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N33" t="n">
-        <v>498.5160693172957</v>
+        <v>225.5400979145461</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>298.0473779639427</v>
+        <v>288.5488753873864</v>
       </c>
       <c r="N35" t="n">
         <v>292.8548331432202</v>
       </c>
       <c r="O35" t="n">
-        <v>132.1785313071766</v>
+        <v>308.511375698591</v>
       </c>
       <c r="P35" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.8075902863009</v>
+        <v>53.97324847144276</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10664,25 +10664,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>47.47076218282615</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>4.164432888264713</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
-        <v>46.65066140377131</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>272.3676417872084</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>256.4366712136326</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>279.2291372064689</v>
       </c>
       <c r="P36" t="n">
-        <v>314.7541621915053</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>218.4803792452831</v>
@@ -10828,16 +10828,16 @@
         <v>22.84943891214834</v>
       </c>
       <c r="L38" t="n">
-        <v>121.7145335725283</v>
+        <v>330.1380542555236</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>100.0878550155957</v>
       </c>
       <c r="N38" t="n">
-        <v>292.85483314322</v>
+        <v>292.8548331432202</v>
       </c>
       <c r="O38" t="n">
-        <v>308.511375698591</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>334.6706564983419</v>
@@ -10901,28 +10901,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>47.47076218282615</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>4.164432888264713</v>
+        <v>152.0974823716126</v>
       </c>
       <c r="L39" t="n">
-        <v>17.8073002935494</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>272.3676417872083</v>
+        <v>272.3676417872084</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>256.4366712136326</v>
       </c>
       <c r="O39" t="n">
-        <v>285.2800323238545</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>314.7541621915053</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>33.53407659450751</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>281.5453881431231</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>308.5113756985909</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
-        <v>193.8416027308328</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,25 +11138,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>47.47076218282615</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0438464930818</v>
+        <v>4.164432888264713</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>298.1128585236604</v>
       </c>
       <c r="M42" t="n">
-        <v>272.3676417872083</v>
+        <v>272.3676417872084</v>
       </c>
       <c r="N42" t="n">
-        <v>256.4366712136325</v>
+        <v>219.39490661217</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>285.2800323238545</v>
       </c>
       <c r="P42" t="n">
-        <v>191.8077980700361</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>33.53407659450751</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>48.58691566960339</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
-        <v>22.84943891214834</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>121.7145335725283</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>292.85483314322</v>
+        <v>281.5453881431235</v>
       </c>
       <c r="O44" t="n">
-        <v>308.511375698591</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>334.6706564983419</v>
@@ -11381,22 +11381,22 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>298.1128585236605</v>
       </c>
       <c r="M45" t="n">
-        <v>272.3676417872083</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>285.2800323238544</v>
+        <v>237.5529498964415</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.4985135543217</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>283.3095309301341</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>323.6182987317324</v>
       </c>
       <c r="G11" t="n">
-        <v>329.6718695751077</v>
+        <v>264.0310101362891</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>63.43736166090154</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>87.84107999117302</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>66.99854321734696</v>
+        <v>132.691210645285</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V11" t="n">
         <v>244.8576567737108</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X11" t="n">
         <v>287.1860343823608</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>91.39458270420933</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>83.66098818239382</v>
       </c>
       <c r="D13" t="n">
-        <v>65.33000176571085</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.29905942439066</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.53788735057549</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.74970353918425</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.7323839163832</v>
+        <v>126.898621262632</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>141.7679529659691</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>135.0731091189597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>283.3095309301341</v>
       </c>
       <c r="D14" t="n">
-        <v>272.9291680057898</v>
+        <v>217.6569405318818</v>
       </c>
       <c r="E14" t="n">
         <v>299.442471006479</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>323.6182987317324</v>
       </c>
       <c r="G14" t="n">
-        <v>329.6718695751077</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>132.691210645285</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>167.6816123413427</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>244.8576567737108</v>
       </c>
       <c r="W14" t="n">
-        <v>208.1674379502618</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X14" t="n">
         <v>287.1860343823608</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="15">
@@ -23655,16 +23655,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>83.66098818239382</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.99666612679506</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.48345666099598</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>59.31401233223555</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>141.7679529659691</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>116.5669482352697</v>
       </c>
       <c r="V16" t="n">
-        <v>169.2607863181306</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C17" t="n">
         <v>283.3095309301341</v>
@@ -23740,19 +23740,19 @@
         <v>272.9291680057898</v>
       </c>
       <c r="E17" t="n">
-        <v>231.6034992658439</v>
+        <v>270.3863810375164</v>
       </c>
       <c r="F17" t="n">
-        <v>323.6182987317324</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>329.6718695751077</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>63.43736166090154</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>244.8576567737108</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>287.1860343823608</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.0115070024273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>96.40812674187529</v>
       </c>
       <c r="C19" t="n">
-        <v>83.66098818239382</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.29905942439066</v>
+        <v>19.63930603237382</v>
       </c>
       <c r="F19" t="n">
-        <v>62.48345666099598</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>83.53788735057549</v>
       </c>
       <c r="H19" t="n">
-        <v>71.9470361651253</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>49.74970353918425</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>59.31401233223555</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.04401379253866</v>
+        <v>135.0731091189597</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.0408452425866</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>283.3095309301341</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>254.9511644213238</v>
       </c>
       <c r="E20" t="n">
-        <v>299.442471006479</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>132.691210645285</v>
       </c>
       <c r="U20" t="n">
-        <v>130.037470968255</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V20" t="n">
         <v>244.8576567737108</v>
@@ -24034,10 +24034,10 @@
         <v>266.8545522517461</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>287.1860343823608</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>303.0115070024273</v>
       </c>
     </row>
     <row r="21">
@@ -24126,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>96.40812674187529</v>
       </c>
       <c r="C22" t="n">
-        <v>83.66098818239382</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.33000176571085</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>63.29905942439066</v>
       </c>
       <c r="F22" t="n">
         <v>62.48345666099598</v>
       </c>
       <c r="G22" t="n">
-        <v>83.53788735057549</v>
+        <v>34.50476081792208</v>
       </c>
       <c r="H22" t="n">
         <v>71.9470361651253</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>92.34307321692955</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>120.0920301482678</v>
+        <v>146.4718607659278</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>63.43736166090157</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>87.84107999117305</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>244.8576567737109</v>
       </c>
       <c r="W23" t="n">
-        <v>266.854552251746</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X23" t="n">
-        <v>287.1860343823608</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>303.0115070024273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>96.40812674187532</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.33000176571082</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>62.48345666099596</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>83.53788735057546</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>71.94703616512527</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>49.74970353918422</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>69.77611407086906</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>110.6740596336116</v>
+        <v>142.4647951835008</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.0731091189597</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>47.16593675218125</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.3667753940935</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3571770901512</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>285.6918544284537</v>
+        <v>181.9915121793936</v>
       </c>
     </row>
     <row r="27">
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>117.4164668799829</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>210.5741860114405</v>
       </c>
       <c r="T28" t="n">
-        <v>169.1941959787614</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.0153902002974</v>
@@ -24663,13 +24663,13 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,25 +24682,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>69.62814904982264</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7131172680018</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.3474343239162</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>322.7069489659763</v>
       </c>
       <c r="I29" t="n">
-        <v>147.11292640971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.3667753940935</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3571770901512</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>23.14346035039974</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>142.9895770810441</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>210.5741860114405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.4435177147776</v>
       </c>
       <c r="U31" t="n">
-        <v>169.1170092916433</v>
+        <v>286.0153902002974</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>286.0925768874155</v>
+        <v>11.93248862117701</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61.69397740149105</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>283.3095309301341</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>76.31656752997398</v>
       </c>
       <c r="G32" t="n">
         <v>329.6718695751077</v>
       </c>
       <c r="H32" t="n">
-        <v>239.0313842171678</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>63.43736166090154</v>
+        <v>63.43736166090157</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>87.84107999117305</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>132.691210645285</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>287.1860343823609</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.40812674187529</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>78.78033189405302</v>
+        <v>47.37500020922214</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.33000176571088</v>
       </c>
       <c r="E34" t="n">
-        <v>63.29905942439066</v>
+        <v>63.29905942439069</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>62.48345666099601</v>
       </c>
       <c r="G34" t="n">
-        <v>83.53788735057549</v>
+        <v>83.53788735057552</v>
       </c>
       <c r="H34" t="n">
-        <v>71.9470361651253</v>
+        <v>71.94703616512533</v>
       </c>
       <c r="I34" t="n">
-        <v>49.74970353918425</v>
+        <v>49.74970353918428</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C35" t="n">
         <v>283.3095309301341</v>
       </c>
       <c r="D35" t="n">
-        <v>272.9291680057898</v>
+        <v>272.9291680057899</v>
       </c>
       <c r="E35" t="n">
         <v>299.442471006479</v>
@@ -25168,13 +25168,13 @@
         <v>323.6182987317324</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>329.6718695751077</v>
       </c>
       <c r="H35" t="n">
         <v>239.0313842171678</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>63.43736166090157</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>13.99140674353617</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>266.8545522517461</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>287.1860343823608</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>303.0115070024273</v>
+        <v>177.8934239014748</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.40812674187529</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.29687523305743</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.29905942439066</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.48345666099598</v>
+        <v>62.48345666099601</v>
       </c>
       <c r="G37" t="n">
-        <v>83.53788735057549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>71.9470361651253</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>49.74970353918425</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>59.31401233223558</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>119.584850670484</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>202.339825451489</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,10 +25396,10 @@
         <v>283.3095309301341</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>272.9291680057898</v>
       </c>
       <c r="E38" t="n">
-        <v>299.442471006479</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>323.6182987317324</v>
@@ -25408,10 +25408,10 @@
         <v>329.6718695751077</v>
       </c>
       <c r="H38" t="n">
-        <v>239.0313842171678</v>
+        <v>217.5098809598901</v>
       </c>
       <c r="I38" t="n">
-        <v>63.43736166090157</v>
+        <v>63.43736166090154</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>244.8576567737108</v>
       </c>
       <c r="W38" t="n">
-        <v>160.6658957650633</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X38" t="n">
-        <v>287.1860343823609</v>
+        <v>287.1860343823608</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.0115070024273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.01307145121915</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>83.66098818239385</v>
+        <v>47.37500020922187</v>
       </c>
       <c r="D40" t="n">
-        <v>65.33000176571088</v>
+        <v>65.33000176571085</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>63.29905942439066</v>
       </c>
       <c r="F40" t="n">
-        <v>62.48345666099601</v>
+        <v>62.48345666099598</v>
       </c>
       <c r="G40" t="n">
-        <v>83.53788735057552</v>
+        <v>83.53788735057549</v>
       </c>
       <c r="H40" t="n">
-        <v>71.94703616512533</v>
+        <v>71.9470361651253</v>
       </c>
       <c r="I40" t="n">
-        <v>49.74970353918428</v>
+        <v>49.74970353918425</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25630,25 +25630,25 @@
         <v>300.0408452425866</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>283.3095309301341</v>
       </c>
       <c r="D41" t="n">
-        <v>272.9291680057898</v>
+        <v>216.4430848349652</v>
       </c>
       <c r="E41" t="n">
-        <v>299.442471006479</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>323.6182987317324</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>239.0313842171678</v>
       </c>
       <c r="I41" t="n">
-        <v>63.43736166090154</v>
+        <v>63.43736166090157</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>87.84107999117302</v>
+        <v>87.84107999117305</v>
       </c>
       <c r="T41" t="n">
         <v>132.691210645285</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>167.6816123413427</v>
       </c>
       <c r="V41" t="n">
-        <v>244.8576567737108</v>
+        <v>244.8576567737109</v>
       </c>
       <c r="W41" t="n">
         <v>266.8545522517461</v>
       </c>
       <c r="X41" t="n">
-        <v>287.1860343823608</v>
+        <v>287.1860343823609</v>
       </c>
       <c r="Y41" t="n">
-        <v>10.47567457960855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>63.29905942439066</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>71.9470361651253</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.898621262632</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>181.577428263056</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>169.2607863181307</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>139.3882496781142</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>135.0731091189597</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20.03975523058159</v>
+        <v>300.0408452425866</v>
       </c>
       <c r="C44" t="n">
-        <v>283.3095309301341</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>272.9291680057898</v>
+        <v>243.5288978641929</v>
       </c>
       <c r="E44" t="n">
         <v>299.442471006479</v>
@@ -25879,13 +25879,13 @@
         <v>323.6182987317324</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>329.6718695751077</v>
       </c>
       <c r="H44" t="n">
         <v>239.0313842171678</v>
       </c>
       <c r="I44" t="n">
-        <v>63.43736166090154</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>87.84107999117302</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>167.6816123413427</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>244.8576567737108</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>266.8545522517461</v>
       </c>
       <c r="X44" t="n">
-        <v>287.1860343823608</v>
+        <v>287.1860343823609</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>83.66098818239385</v>
       </c>
       <c r="D46" t="n">
-        <v>65.33000176571085</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.29905942439069</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>83.53788735057549</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>71.94703616512533</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>49.74970353918428</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>59.31401233223558</v>
       </c>
       <c r="S46" t="n">
-        <v>126.898621262632</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>167.9556347362857</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>115.7513454718745</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>630154.2267455343</v>
+        <v>630154.2267455345</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>630154.2267455343</v>
+        <v>630154.2267455342</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>648394.9152057323</v>
+        <v>648394.9152057325</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>648394.9152057323</v>
+        <v>648394.9152057325</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>784808.9076082669</v>
+        <v>784808.907608267</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>630154.2267455342</v>
+        <v>630154.2267455343</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>630154.2267455342</v>
+        <v>630154.2267455343</v>
       </c>
     </row>
     <row r="15">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690332.9210923795</v>
+        <v>690332.9210923794</v>
       </c>
       <c r="C2" t="n">
-        <v>690332.9210923795</v>
+        <v>690332.9210923796</v>
       </c>
       <c r="D2" t="n">
         <v>690332.9210923797</v>
@@ -26325,22 +26325,22 @@
         <v>527880.4968200049</v>
       </c>
       <c r="F2" t="n">
-        <v>527880.496820005</v>
+        <v>527880.4968200049</v>
       </c>
       <c r="G2" t="n">
-        <v>527880.496820005</v>
+        <v>527880.4968200048</v>
       </c>
       <c r="H2" t="n">
-        <v>527880.496820005</v>
+        <v>527880.4968200048</v>
       </c>
       <c r="I2" t="n">
-        <v>616665.9941470661</v>
+        <v>616665.9941470663</v>
       </c>
       <c r="J2" t="n">
-        <v>487830.5568780053</v>
+        <v>487830.5568780054</v>
       </c>
       <c r="K2" t="n">
-        <v>487830.5568780053</v>
+        <v>487830.5568780055</v>
       </c>
       <c r="L2" t="n">
         <v>616665.9941470663</v>
@@ -26349,13 +26349,13 @@
         <v>527880.496820005</v>
       </c>
       <c r="N2" t="n">
-        <v>527880.4968200049</v>
+        <v>527880.4968200048</v>
       </c>
       <c r="O2" t="n">
         <v>527880.496820005</v>
       </c>
       <c r="P2" t="n">
-        <v>527880.496820005</v>
+        <v>527880.4968200052</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89916.91786623857</v>
+        <v>89916.91786623852</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66940.45179904682</v>
+        <v>66940.45179904679</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422010.6252867678</v>
+        <v>422010.6252867677</v>
       </c>
       <c r="C4" t="n">
-        <v>422010.6252867678</v>
+        <v>422010.6252867677</v>
       </c>
       <c r="D4" t="n">
-        <v>422010.6252867678</v>
+        <v>422010.6252867677</v>
       </c>
       <c r="E4" t="n">
         <v>189043.1353014138</v>
       </c>
       <c r="F4" t="n">
-        <v>189043.1353014138</v>
+        <v>189043.1353014137</v>
       </c>
       <c r="G4" t="n">
-        <v>189043.1353014138</v>
+        <v>189043.1353014137</v>
       </c>
       <c r="H4" t="n">
-        <v>189043.1353014138</v>
+        <v>189043.1353014137</v>
       </c>
       <c r="I4" t="n">
         <v>219081.0209868973</v>
@@ -26444,22 +26444,22 @@
         <v>132382.4545092721</v>
       </c>
       <c r="K4" t="n">
-        <v>132382.454509272</v>
+        <v>132382.4545092721</v>
       </c>
       <c r="L4" t="n">
-        <v>219081.0209868973</v>
+        <v>219081.0209868972</v>
       </c>
       <c r="M4" t="n">
+        <v>189043.1353014137</v>
+      </c>
+      <c r="N4" t="n">
         <v>189043.1353014138</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>189043.1353014137</v>
       </c>
-      <c r="O4" t="n">
-        <v>189043.1353014138</v>
-      </c>
       <c r="P4" t="n">
-        <v>189043.1353014138</v>
+        <v>189043.1353014137</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35766.94476892423</v>
+        <v>35766.94476892424</v>
       </c>
       <c r="F5" t="n">
-        <v>35766.94476892423</v>
+        <v>35766.94476892422</v>
       </c>
       <c r="G5" t="n">
-        <v>35766.94476892423</v>
+        <v>35766.94476892422</v>
       </c>
       <c r="H5" t="n">
         <v>35766.94476892423</v>
@@ -26493,25 +26493,25 @@
         <v>56325.48887137309</v>
       </c>
       <c r="J5" t="n">
-        <v>49290.9678185055</v>
+        <v>49290.96781850551</v>
       </c>
       <c r="K5" t="n">
-        <v>49290.9678185055</v>
+        <v>49290.96781850551</v>
       </c>
       <c r="L5" t="n">
-        <v>56325.48887137308</v>
+        <v>56325.48887137309</v>
       </c>
       <c r="M5" t="n">
+        <v>35766.94476892422</v>
+      </c>
+      <c r="N5" t="n">
         <v>35766.94476892423</v>
-      </c>
-      <c r="N5" t="n">
-        <v>35766.94476892422</v>
       </c>
       <c r="O5" t="n">
         <v>35766.94476892422</v>
       </c>
       <c r="P5" t="n">
-        <v>35766.94476892422</v>
+        <v>35766.94476892424</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>234694.6958056117</v>
+        <v>234650.6200341317</v>
       </c>
       <c r="C6" t="n">
-        <v>234694.6958056117</v>
+        <v>234650.620034132</v>
       </c>
       <c r="D6" t="n">
-        <v>234694.695805612</v>
+        <v>234650.6200341321</v>
       </c>
       <c r="E6" t="n">
-        <v>-166064.2282995509</v>
+        <v>-170886.3165496301</v>
       </c>
       <c r="F6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.3284995878</v>
       </c>
       <c r="G6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.3284995877</v>
       </c>
       <c r="H6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.3284995877</v>
       </c>
       <c r="I6" t="n">
-        <v>251342.5664225573</v>
+        <v>249131.8163291565</v>
       </c>
       <c r="J6" t="n">
-        <v>306157.1345502277</v>
+        <v>300157.1068900898</v>
       </c>
       <c r="K6" t="n">
-        <v>306157.1345502278</v>
+        <v>300157.1068900899</v>
       </c>
       <c r="L6" t="n">
-        <v>274319.0324897491</v>
+        <v>272108.2823963483</v>
       </c>
       <c r="M6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.328499588</v>
       </c>
       <c r="N6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.3284995877</v>
       </c>
       <c r="O6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.328499588</v>
       </c>
       <c r="P6" t="n">
-        <v>303070.416749667</v>
+        <v>298248.3284995881</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>83.67556474880851</v>
       </c>
       <c r="I2" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>83.67556474880848</v>
+      </c>
+      <c r="M2" t="n">
+        <v>83.67556474880848</v>
+      </c>
+      <c r="N2" t="n">
         <v>83.67556474880851</v>
       </c>
-      <c r="M2" t="n">
-        <v>83.67556474880851</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>83.67556474880848</v>
       </c>
-      <c r="O2" t="n">
-        <v>83.67556474880851</v>
-      </c>
       <c r="P2" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="3">
@@ -26801,37 +26801,37 @@
         <v>338.1339490534352</v>
       </c>
       <c r="F4" t="n">
-        <v>338.1339490534352</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="G4" t="n">
-        <v>338.1339490534352</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="H4" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="I4" t="n">
-        <v>676.2678981068703</v>
+        <v>676.2678981068705</v>
       </c>
       <c r="J4" t="n">
-        <v>676.2678981068703</v>
+        <v>676.2678981068705</v>
       </c>
       <c r="K4" t="n">
-        <v>676.2678981068703</v>
+        <v>676.2678981068705</v>
       </c>
       <c r="L4" t="n">
-        <v>676.2678981068703</v>
+        <v>676.2678981068705</v>
       </c>
       <c r="M4" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="N4" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="O4" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="P4" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534353</v>
       </c>
     </row>
   </sheetData>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28520,7 +28520,7 @@
         <v>83.67556474880851</v>
       </c>
       <c r="N16" t="n">
-        <v>83.67556474880851</v>
+        <v>83.6755647488078</v>
       </c>
       <c r="O16" t="n">
         <v>83.67556474880851</v>
@@ -28948,7 +28948,7 @@
         <v>83.67556474880851</v>
       </c>
       <c r="Y21" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880809</v>
       </c>
     </row>
     <row r="22">
@@ -28982,7 +28982,7 @@
         <v>83.67556474880851</v>
       </c>
       <c r="J22" t="n">
-        <v>83.67556474880823</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="K22" t="n">
         <v>83.67556474880851</v>
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y23" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="K25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="L25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="N25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="O25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="P25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Q25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="R25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="S25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.67556474880854</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y32" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="K34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="L34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="N34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="O34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="P34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="R34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="S34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y35" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I36" t="n">
         <v>58.73612310593334</v>
@@ -30115,25 +30115,25 @@
         <v>44.62165458789064</v>
       </c>
       <c r="S36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880845</v>
       </c>
       <c r="W36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y36" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="K37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="L37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="N37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="O37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="P37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="R37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="S37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y37" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="C38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="D38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="E38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="F38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="G38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="H38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="I38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="T38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="U38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="V38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="W38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="X38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="Y38" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="C39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="D39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="E39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="F39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="G39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="H39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="I39" t="n">
         <v>58.73612310593334</v>
@@ -30352,25 +30352,25 @@
         <v>44.62165458789064</v>
       </c>
       <c r="S39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="T39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="U39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="V39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.675564748808</v>
       </c>
       <c r="W39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="X39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="Y39" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="C40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="D40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="E40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="F40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="G40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="H40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="I40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="J40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="K40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="L40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="M40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="N40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="O40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="P40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="R40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="S40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="T40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="U40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="V40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="W40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="X40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
       <c r="Y40" t="n">
-        <v>83.67556474880848</v>
+        <v>83.67556474880851</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y41" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I42" t="n">
         <v>58.73612310593334</v>
@@ -30589,25 +30589,25 @@
         <v>44.62165458789064</v>
       </c>
       <c r="S42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880845</v>
       </c>
       <c r="W42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="K43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="L43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="N43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="O43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="P43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="R43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="S43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y43" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>47.16593675218125</v>
       </c>
       <c r="S44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I45" t="n">
         <v>58.73612310593334</v>
@@ -30826,25 +30826,25 @@
         <v>44.62165458789064</v>
       </c>
       <c r="S45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y45" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="C46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="D46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="E46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="F46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="G46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="H46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="I46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="J46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="K46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="L46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="M46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="N46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="O46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="P46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="R46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="S46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="T46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="U46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="V46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="W46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="X46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.67556474880851</v>
+        <v>83.67556474880848</v>
       </c>
     </row>
   </sheetData>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>314.261790161863</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="M11" t="n">
-        <v>136.2306724804015</v>
+        <v>40.08657108949245</v>
       </c>
       <c r="N11" t="n">
-        <v>45.27911591021504</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="O11" t="n">
-        <v>338.1339490534352</v>
+        <v>129.7104283704401</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>325.9745790925472</v>
       </c>
       <c r="Q11" t="n">
         <v>166.8343418148581</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.008386207873</v>
+        <v>270.879413604817</v>
       </c>
       <c r="L12" t="n">
+        <v>40.0210905297748</v>
+      </c>
+      <c r="M12" t="n">
+        <v>328.325629370816</v>
+      </c>
+      <c r="N12" t="n">
         <v>338.1339490534352</v>
-      </c>
-      <c r="M12" t="n">
-        <v>65.76630726622682</v>
-      </c>
-      <c r="N12" t="n">
-        <v>81.69727783980258</v>
       </c>
       <c r="O12" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="P12" t="n">
-        <v>338.1339490534352</v>
+        <v>23.37978686192983</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>127.2735641093533</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>314.261790161863</v>
       </c>
       <c r="L14" t="n">
-        <v>7.995894797911632</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="M14" t="n">
-        <v>40.08657108949245</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="N14" t="n">
-        <v>338.1339490534352</v>
+        <v>191.4479927412768</v>
       </c>
       <c r="O14" t="n">
-        <v>332.5749185166102</v>
+        <v>29.62257335484418</v>
       </c>
       <c r="P14" t="n">
-        <v>325.9745790925472</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.8343418148581</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>83.66391457119903</v>
       </c>
       <c r="K15" t="n">
         <v>270.879413604817</v>
       </c>
       <c r="L15" t="n">
-        <v>338.1339490534352</v>
+        <v>40.0210905297748</v>
       </c>
       <c r="M15" t="n">
-        <v>286.6494420607881</v>
+        <v>65.76630726622682</v>
       </c>
       <c r="N15" t="n">
-        <v>81.69727783980258</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="O15" t="n">
-        <v>338.1339490534352</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="P15" t="n">
-        <v>23.37978686192983</v>
+        <v>202.2751943953197</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35816,7 +35816,7 @@
         <v>239.8604943109442</v>
       </c>
       <c r="N16" t="n">
-        <v>241.3399596096112</v>
+        <v>241.3399596096105</v>
       </c>
       <c r="O16" t="n">
         <v>213.8126404523951</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>127.2735641093533</v>
       </c>
       <c r="K17" t="n">
         <v>314.261790161863</v>
       </c>
       <c r="L17" t="n">
-        <v>338.1339490534352</v>
+        <v>7.995894797911632</v>
       </c>
       <c r="M17" t="n">
-        <v>303.0650142952595</v>
+        <v>40.08657108949245</v>
       </c>
       <c r="N17" t="n">
         <v>45.27911591021504</v>
       </c>
       <c r="O17" t="n">
-        <v>338.1339490534352</v>
+        <v>311.1679614979669</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>325.9745790925472</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>166.8343418148581</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>83.66391457119903</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>270.879413604817</v>
       </c>
       <c r="L18" t="n">
         <v>40.0210905297748</v>
       </c>
       <c r="M18" t="n">
-        <v>338.1339490534352</v>
+        <v>65.76630726622682</v>
       </c>
       <c r="N18" t="n">
-        <v>200.7869662129286</v>
+        <v>81.69727783980258</v>
       </c>
       <c r="O18" t="n">
-        <v>338.1339490534352</v>
+        <v>338.1339490534351</v>
       </c>
       <c r="P18" t="n">
-        <v>338.1339490534352</v>
+        <v>273.7655629581765</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>184.9463026507756</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>127.2735641093533</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>314.261790161863</v>
       </c>
       <c r="L20" t="n">
-        <v>7.995894797911632</v>
+        <v>289.5412829410348</v>
       </c>
       <c r="M20" t="n">
         <v>40.08657108949245</v>
       </c>
       <c r="N20" t="n">
-        <v>338.1339490534352</v>
+        <v>45.27911591021504</v>
       </c>
       <c r="O20" t="n">
-        <v>338.1339490534352</v>
+        <v>29.62257335484418</v>
       </c>
       <c r="P20" t="n">
-        <v>320.4155485557222</v>
+        <v>325.9745790925472</v>
       </c>
       <c r="Q20" t="n">
         <v>166.8343418148581</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>270.879413604817</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1960326105325</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="M21" t="n">
         <v>65.76630726622682</v>
       </c>
       <c r="N21" t="n">
-        <v>81.69727783980258</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="O21" t="n">
-        <v>338.1339490534352</v>
+        <v>52.8539167295807</v>
       </c>
       <c r="P21" t="n">
-        <v>338.1339490534352</v>
+        <v>88.15998011593751</v>
       </c>
       <c r="Q21" t="n">
         <v>184.9463026507756</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.63959375322041</v>
+        <v>42.6395937532207</v>
       </c>
       <c r="K22" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L22" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M22" t="n">
         <v>239.8604943109442</v>
@@ -36366,7 +36366,7 @@
         <v>442.36355793038</v>
       </c>
       <c r="M23" t="n">
-        <v>375.2651246726364</v>
+        <v>507.5806459220383</v>
       </c>
       <c r="N23" t="n">
         <v>500.1199172986785</v>
@@ -36378,7 +36378,7 @@
         <v>325.9745790925472</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.8343418148581</v>
+        <v>34.51882056545658</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>550.0995735662268</v>
       </c>
       <c r="N24" t="n">
-        <v>580.2133471570983</v>
+        <v>307.2373757543486</v>
       </c>
       <c r="O24" t="n">
-        <v>189.4947573746299</v>
+        <v>462.4707287773793</v>
       </c>
       <c r="P24" t="n">
         <v>354.5810662474645</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.63959375322073</v>
+        <v>42.63959375322067</v>
       </c>
       <c r="K25" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L25" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M25" t="n">
-        <v>239.8604943109443</v>
+        <v>239.8604943109442</v>
       </c>
       <c r="N25" t="n">
         <v>241.3399596096112</v>
@@ -36533,10 +36533,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P25" t="n">
-        <v>171.573262974337</v>
+        <v>171.5732629743369</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.5321043984088</v>
+        <v>60.53210439840875</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>127.2735641093533</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>314.261790161863</v>
@@ -36609,13 +36609,13 @@
         <v>500.1199172986785</v>
       </c>
       <c r="O26" t="n">
-        <v>293.3392406186973</v>
+        <v>425.6547618680993</v>
       </c>
       <c r="P26" t="n">
         <v>325.9745790925472</v>
       </c>
       <c r="Q26" t="n">
-        <v>166.8343418148581</v>
+        <v>161.79238467481</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>83.66391457119903</v>
+        <v>81.56735677326652</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>423.5984918474398</v>
+        <v>425.6950496453724</v>
       </c>
       <c r="M27" t="n">
         <v>550.0995735662268</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>127.2735641093533</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>314.261790161863</v>
@@ -36846,13 +36846,13 @@
         <v>500.1199172986785</v>
       </c>
       <c r="O29" t="n">
-        <v>293.3392406186973</v>
+        <v>425.6547618680993</v>
       </c>
       <c r="P29" t="n">
         <v>325.9745790925472</v>
       </c>
       <c r="Q29" t="n">
-        <v>166.8343418148581</v>
+        <v>161.79238467481</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>83.66391457119903</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>270.879413604817</v>
+        <v>266.5136594240422</v>
       </c>
       <c r="L30" t="n">
         <v>425.6950496453724</v>
       </c>
       <c r="M30" t="n">
-        <v>277.1236021634774</v>
+        <v>550.0995735662268</v>
       </c>
       <c r="N30" t="n">
         <v>580.2133471570983</v>
@@ -36931,7 +36931,7 @@
         <v>354.5810662474645</v>
       </c>
       <c r="Q30" t="n">
-        <v>184.9463026507756</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>314.261790161863</v>
       </c>
       <c r="L32" t="n">
-        <v>442.36355793038</v>
+        <v>310.0480366809786</v>
       </c>
       <c r="M32" t="n">
         <v>507.5806459220383</v>
@@ -37083,7 +37083,7 @@
         <v>500.1199172986785</v>
       </c>
       <c r="O32" t="n">
-        <v>293.3392406186973</v>
+        <v>425.6547618680993</v>
       </c>
       <c r="P32" t="n">
         <v>325.9745790925472</v>
@@ -37156,10 +37156,10 @@
         <v>425.6950496453724</v>
       </c>
       <c r="M33" t="n">
-        <v>277.1236021634774</v>
+        <v>550.0995735662268</v>
       </c>
       <c r="N33" t="n">
-        <v>580.2133471570983</v>
+        <v>307.2373757543486</v>
       </c>
       <c r="O33" t="n">
         <v>462.4707287773793</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.6395937532207</v>
+        <v>42.63959375322067</v>
       </c>
       <c r="K34" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L34" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M34" t="n">
         <v>239.8604943109442</v>
@@ -37244,10 +37244,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P34" t="n">
-        <v>171.573262974337</v>
+        <v>171.5732629743369</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.53210439840878</v>
+        <v>60.53210439840875</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37314,19 +37314,19 @@
         <v>7.995894797911632</v>
       </c>
       <c r="M35" t="n">
-        <v>338.1339490534352</v>
+        <v>328.6354464768789</v>
       </c>
       <c r="N35" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="O35" t="n">
-        <v>161.8011046620208</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="P35" t="n">
         <v>325.9745790925472</v>
       </c>
       <c r="Q35" t="n">
-        <v>166.8343418148581</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>83.66391457119903</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>270.879413604817</v>
       </c>
       <c r="L36" t="n">
-        <v>86.6717519335461</v>
+        <v>40.0210905297748</v>
       </c>
       <c r="M36" t="n">
-        <v>338.1339490534352</v>
+        <v>65.76630726622682</v>
       </c>
       <c r="N36" t="n">
         <v>338.1339490534352</v>
       </c>
       <c r="O36" t="n">
-        <v>52.8539167295807</v>
+        <v>332.0830539360496</v>
       </c>
       <c r="P36" t="n">
-        <v>338.1339490534352</v>
+        <v>23.37978686192983</v>
       </c>
       <c r="Q36" t="n">
         <v>184.9463026507756</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.6395937532207</v>
+        <v>42.63959375322067</v>
       </c>
       <c r="K37" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L37" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M37" t="n">
         <v>239.8604943109442</v>
@@ -37481,10 +37481,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P37" t="n">
-        <v>171.573262974337</v>
+        <v>171.5732629743369</v>
       </c>
       <c r="Q37" t="n">
-        <v>60.53210439840878</v>
+        <v>60.53210439840875</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>129.7104283704399</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="M38" t="n">
-        <v>40.08657108949245</v>
+        <v>140.1744261050882</v>
       </c>
       <c r="N38" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="O38" t="n">
-        <v>338.1339490534351</v>
+        <v>29.62257335484418</v>
       </c>
       <c r="P38" t="n">
         <v>325.9745790925472</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>83.66391457119903</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>147.9330494833479</v>
       </c>
       <c r="L39" t="n">
-        <v>57.8283908233242</v>
+        <v>40.0210905297748</v>
       </c>
       <c r="M39" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="N39" t="n">
-        <v>81.69727783980258</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="O39" t="n">
-        <v>338.1339490534351</v>
+        <v>52.8539167295807</v>
       </c>
       <c r="P39" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="Q39" t="n">
-        <v>184.9463026507756</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.63959375322067</v>
+        <v>42.6395937532207</v>
       </c>
       <c r="K40" t="n">
         <v>147.4559613641888</v>
@@ -37718,10 +37718,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P40" t="n">
-        <v>171.5732629743369</v>
+        <v>171.573262974337</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.53210439840875</v>
+        <v>60.53210439840878</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,19 +37788,19 @@
         <v>7.995894797911632</v>
       </c>
       <c r="M41" t="n">
-        <v>40.08657108949245</v>
+        <v>321.6319592326155</v>
       </c>
       <c r="N41" t="n">
         <v>45.27911591021504</v>
       </c>
       <c r="O41" t="n">
-        <v>338.1339490534351</v>
+        <v>29.62257335484418</v>
       </c>
       <c r="P41" t="n">
         <v>325.9745790925472</v>
       </c>
       <c r="Q41" t="n">
-        <v>139.8683542593901</v>
+        <v>166.8343418148581</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>83.66391457119903</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>270.879413604817</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>40.0210905297748</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="M42" t="n">
-        <v>338.1339490534351</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="N42" t="n">
-        <v>338.1339490534351</v>
+        <v>301.0921844519726</v>
       </c>
       <c r="O42" t="n">
-        <v>52.8539167295807</v>
+        <v>338.1339490534352</v>
       </c>
       <c r="P42" t="n">
-        <v>215.1875849319659</v>
+        <v>23.37978686192983</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.6395937532207</v>
+        <v>42.63959375322067</v>
       </c>
       <c r="K43" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L43" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M43" t="n">
         <v>239.8604943109442</v>
@@ -37955,10 +37955,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P43" t="n">
-        <v>171.573262974337</v>
+        <v>171.5732629743369</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.53210439840878</v>
+        <v>60.53210439840875</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>127.2735641093533</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>314.261790161863</v>
       </c>
       <c r="L44" t="n">
-        <v>129.7104283704399</v>
+        <v>7.995894797911632</v>
       </c>
       <c r="M44" t="n">
         <v>40.08657108949245</v>
       </c>
       <c r="N44" t="n">
-        <v>338.1339490534351</v>
+        <v>326.8245040533386</v>
       </c>
       <c r="O44" t="n">
-        <v>338.1339490534351</v>
+        <v>29.62257335484418</v>
       </c>
       <c r="P44" t="n">
         <v>325.9745790925472</v>
@@ -38101,22 +38101,22 @@
         <v>270.879413604817</v>
       </c>
       <c r="L45" t="n">
-        <v>40.0210905297748</v>
+        <v>338.1339490534353</v>
       </c>
       <c r="M45" t="n">
-        <v>338.1339490534351</v>
+        <v>65.76630726622682</v>
       </c>
       <c r="N45" t="n">
         <v>81.69727783980258</v>
       </c>
       <c r="O45" t="n">
-        <v>338.1339490534351</v>
+        <v>290.4068666260222</v>
       </c>
       <c r="P45" t="n">
         <v>23.37978686192983</v>
       </c>
       <c r="Q45" t="n">
-        <v>162.9644369598142</v>
+        <v>184.9463026507756</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.6395937532207</v>
+        <v>42.63959375322067</v>
       </c>
       <c r="K46" t="n">
         <v>147.4559613641888</v>
       </c>
       <c r="L46" t="n">
-        <v>221.6598016111024</v>
+        <v>221.6598016111023</v>
       </c>
       <c r="M46" t="n">
         <v>239.8604943109442</v>
@@ -38192,10 +38192,10 @@
         <v>213.8126404523951</v>
       </c>
       <c r="P46" t="n">
-        <v>171.573262974337</v>
+        <v>171.5732629743369</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.53210439840878</v>
+        <v>60.53210439840875</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
